--- a/RESULTS DATA/MILD-BICI Behavior Files/mild-bici-color.xlsx
+++ b/RESULTS DATA/MILD-BICI Behavior Files/mild-bici-color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\MILD-Master\RESULTS DATA\MILD-BICI Behavior Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C88715-07F4-40D8-906E-281CA834B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC899B63-E499-47BA-839E-ED41CEE48BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD5F55A1-D6FF-489E-BD9C-C7412A88446C}"/>
+    <workbookView minimized="1" xWindow="1260" yWindow="1260" windowWidth="22920" windowHeight="12120" xr2:uid="{DD5F55A1-D6FF-489E-BD9C-C7412A88446C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="354">
   <si>
     <t>S</t>
   </si>
@@ -711,6 +711,393 @@
   </si>
   <si>
     <t>stim/mild-bici-color/s_mild-bici-color-1_snr-4/side=l_itd=0_az=60_mag=1_lpf=0/4_side=l_itd=0_az=60_mag=1_lpf=0.wav</t>
+  </si>
+  <si>
+    <t>mild_bici_color_1_snr=2</t>
+  </si>
+  <si>
+    <t>side=l_itd=0_az=30_az_itd=0_mag=0</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/0__side=l_itd=0_az=30_az_itd=0_mag=0__l=pen-shoe-sock-spoons-toy-red-toy-hat-spoons-card-bag-desks-toy-bag-sock-toy__r=chairs-blue-card-chairs-chairs-tables-pen-green-desks-hat-pen-red-toy-glove-hat-green.wav</t>
+  </si>
+  <si>
+    <t>side=l_itd=0_az=60_az_itd=0_mag=1</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/0__side=l_itd=0_az=60_az_itd=0_mag=1__l=bag-bag-sock-sock-toy-card-chairs-red-pen-hat-white-spoons-shoe-glove-shoe-shoe__r=desks-tables-white-shoe-hat-sock-desks-shoe-shoe-hat-card-toy-blue-sock-hat-green.wav</t>
+  </si>
+  <si>
+    <t>side=r_itd=0_az=60_az_itd=0_mag=0</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/0__side=r_itd=0_az=60_az_itd=0_mag=0__l=pen-glove-bag-desks-hat-desks-sock-sock-sock-blue-spoons-spoons-spoons-sock-blue-hat__r=tables-bag-red-tables-hat-blue-glove-blue-hat-chairs-shoe-green-desks-spoons-toy-card.wav</t>
+  </si>
+  <si>
+    <t>side=l_itd=0_az=30_az_itd=0_mag=1</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/0__side=l_itd=0_az=30_az_itd=0_mag=1__l=desks-pen-card-tables-chairs-glove-bag-toy-green-hat-chairs-shoe-white-bag-sock-red__r=bag-glove-desks-green-tables-white-shoe-glove-pen-card-desks-hat-bag-card-card-tables.wav</t>
+  </si>
+  <si>
+    <t>side=r_itd=0_az=30_az_itd=0_mag=1</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/0__side=r_itd=0_az=30_az_itd=0_mag=1__l=pen-sock-tables-red-chairs-hat-green-toy-glove-hat-bag-card-desks-red-hat-pen__r=hat-spoons-card-sock-spoons-shoe-pen-hat-red-shoe-blue-pen-glove-hat-glove-green.wav</t>
+  </si>
+  <si>
+    <t>side=l_itd=0_az=60_az_itd=0_mag=0</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/0__side=l_itd=0_az=60_az_itd=0_mag=0__l=tables-card-bag-desks-hat-sock-bag-tables-sock-sock-pen-card-blue-toy-pen-bag__r=pen-green-bag-green-spoons-hat-red-chairs-blue-desks-glove-chairs-tables-bag-blue-chairs.wav</t>
+  </si>
+  <si>
+    <t>side=r_itd=0_az=60_az_itd=0_mag=1</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/0__side=r_itd=0_az=60_az_itd=0_mag=1__l=pen-shoe-shoe-tables-tables-pen-pen-hat-hat-red-glove-white-pen-desks-chairs-tables__r=glove-pen-chairs-blue-toy-bag-blue-desks-card-bag-spoons-toy-bag-spoons-white-toy.wav</t>
+  </si>
+  <si>
+    <t>side=r_itd=0_az=30_az_itd=0_mag=0</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/0__side=r_itd=0_az=30_az_itd=0_mag=0__l=spoons-pen-desks-chairs-blue-spoons-green-toy-glove-blue-desks-hat-green-desks-spoons-sock__r=card-green-bag-hat-desks-toy-pen-spoons-chairs-glove-toy-tables-bag-desks-pen-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/10__side=l_itd=0_az=30_az_itd=0_mag=1__l=tables-sock-blue-spoons-glove-hat-sock-sock-toy-sock-shoe-green-shoe-glove-hat-hat__r=pen-pen-tables-sock-card-glove-green-shoe-toy-white-toy-pen-pen-pen-white-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/10__side=r_itd=0_az=30_az_itd=0_mag=0__l=toy-shoe-tables-shoe-card-spoons-white-glove-spoons-shoe-hat-pen-tables-chairs-shoe-glove__r=glove-green-bag-blue-sock-pen-shoe-tables-white-sock-green-bag-shoe-tables-red-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/10__side=l_itd=0_az=60_az_itd=0_mag=1__l=toy-spoons-hat-bag-blue-glove-glove-hat-tables-bag-hat-pen-toy-toy-desks-green__r=tables-blue-toy-spoons-glove-bag-tables-red-hat-pen-chairs-tables-toy-green-card-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/10__side=r_itd=0_az=60_az_itd=0_mag=1__l=spoons-hat-spoons-glove-spoons-toy-hat-hat-card-spoons-card-pen-blue-card-hat-glove__r=sock-pen-red-pen-bag-desks-white-pen-shoe-green-chairs-bag-sock-pen-red-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/10__side=l_itd=0_az=30_az_itd=0_mag=0__l=pen-desks-pen-card-spoons-hat-tables-green-sock-tables-sock-chairs-blue-bag-bag-card__r=bag-hat-chairs-red-chairs-chairs-shoe-pen-glove-white-desks-desks-desks-toy-chairs-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/10__side=r_itd=0_az=60_az_itd=0_mag=0__l=pen-chairs-blue-hat-glove-toy-bag-hat-tables-blue-shoe-sock-tables-shoe-blue-shoe__r=shoe-toy-card-tables-card-blue-card-spoons-spoons-shoe-sock-tables-white-chairs-pen-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/10__side=r_itd=0_az=30_az_itd=0_mag=1__l=sock-sock-shoe-card-bag-bag-glove-bag-sock-sock-pen-shoe-white-hat-glove-card__r=hat-bag-green-pen-green-spoons-pen-shoe-white-toy-red-chairs-chairs-card-spoons-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/10__side=l_itd=0_az=60_az_itd=0_mag=0__l=toy-red-desks-red-card-hat-hat-hat-toy-blue-glove-card-shoe-shoe-hat-pen__r=bag-shoe-hat-hat-card-red-card-red-spoons-glove-bag-bag-bag-green-hat-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/11__side=l_itd=0_az=60_az_itd=0_mag=1__l=chairs-red-glove-blue-sock-card-bag-chairs-tables-tables-shoe-red-toy-white-desks-spoons__r=tables-card-card-bag-chairs-blue-toy-sock-toy-pen-hat-pen-sock-bag-hat-sock.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/11__side=r_itd=0_az=30_az_itd=0_mag=1__l=tables-bag-blue-glove-chairs-spoons-sock-glove-card-desks-blue-glove-glove-blue-bag-glove__r=desks-chairs-bag-desks-card-red-tables-spoons-red-pen-shoe-toy-hat-toy-toy-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/11__side=r_itd=0_az=60_az_itd=0_mag=0__l=pen-white-spoons-chairs-sock-sock-tables-shoe-desks-toy-glove-toy-card-shoe-chairs-blue__r=chairs-desks-pen-desks-white-card-shoe-hat-red-card-glove-glove-bag-red-sock-sock.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/11__side=l_itd=0_az=30_az_itd=0_mag=0__l=sock-toy-desks-pen-hat-card-shoe-chairs-glove-desks-hat-spoons-green-pen-desks-card__r=card-white-chairs-white-bag-red-bag-shoe-card-tables-tables-hat-chairs-tables-spoons-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/11__side=r_itd=0_az=30_az_itd=0_mag=0__l=shoe-white-glove-desks-shoe-chairs-chairs-spoons-red-glove-spoons-shoe-tables-green-tables-desks__r=hat-tables-sock-white-spoons-toy-spoons-hat-tables-sock-hat-toy-desks-hat-tables-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/11__side=l_itd=0_az=30_az_itd=0_mag=1__l=desks-red-chairs-glove-tables-bag-sock-spoons-shoe-glove-spoons-hat-desks-glove-desks-pen__r=tables-glove-sock-chairs-blue-tables-white-hat-red-glove-card-green-toy-bag-tables-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/11__side=r_itd=0_az=60_az_itd=0_mag=1__l=pen-hat-desks-bag-toy-toy-toy-tables-red-card-spoons-white-spoons-chairs-green-spoons__r=tables-blue-pen-spoons-blue-card-blue-hat-chairs-pen-hat-pen-spoons-tables-hat-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/11__side=l_itd=0_az=60_az_itd=0_mag=0__l=pen-desks-spoons-blue-chairs-card-pen-toy-tables-card-chairs-pen-tables-toy-bag-spoons__r=tables-blue-shoe-pen-pen-toy-spoons-spoons-tables-white-card-white-sock-hat-red-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/12__side=r_itd=0_az=60_az_itd=0_mag=0__l=shoe-pen-green-toy-spoons-hat-desks-sock-tables-hat-blue-toy-red-toy-bag-tables__r=desks-shoe-sock-shoe-red-shoe-red-tables-desks-desks-desks-chairs-sock-sock-white-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/12__side=l_itd=0_az=60_az_itd=0_mag=0__l=spoons-glove-tables-bag-hat-bag-blue-chairs-toy-shoe-glove-green-card-tables-shoe-desks__r=pen-desks-red-desks-glove-sock-sock-glove-pen-white-bag-shoe-spoons-red-sock-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/12__side=l_itd=0_az=60_az_itd=0_mag=1__l=glove-card-hat-chairs-pen-desks-spoons-bag-spoons-toy-tables-blue-toy-chairs-desks-card__r=card-card-green-card-card-green-spoons-hat-blue-hat-chairs-tables-hat-blue-bag-bag.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/12__side=l_itd=0_az=30_az_itd=0_mag=0__l=hat-toy-chairs-green-chairs-shoe-card-green-spoons-tables-blue-chairs-sock-toy-green-shoe__r=card-desks-spoons-glove-pen-red-glove-desks-desks-hat-bag-spoons-bag-desks-pen-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/12__side=r_itd=0_az=60_az_itd=0_mag=1__l=bag-shoe-card-chairs-desks-pen-tables-bag-glove-glove-spoons-bag-hat-blue-toy-tables__r=hat-green-desks-toy-chairs-sock-chairs-toy-blue-tables-glove-red-toy-sock-sock-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/12__side=r_itd=0_az=30_az_itd=0_mag=1__l=pen-sock-pen-desks-tables-card-shoe-sock-card-chairs-desks-shoe-card-glove-hat-blue__r=shoe-green-hat-blue-spoons-white-card-card-sock-sock-spoons-red-bag-shoe-shoe-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/12__side=l_itd=0_az=30_az_itd=0_mag=1__l=sock-bag-desks-red-chairs-card-spoons-green-glove-desks-card-chairs-sock-chairs-card-glove__r=shoe-glove-shoe-tables-shoe-green-shoe-chairs-hat-red-spoons-red-card-hat-hat-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/12__side=r_itd=0_az=30_az_itd=0_mag=0__l=spoons-white-chairs-chairs-blue-toy-blue-bag-white-sock-bag-hat-hat-pen-tables-white__r=card-pen-chairs-shoe-pen-glove-card-bag-hat-hat-bag-blue-bag-toy-chairs-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/13__side=l_itd=0_az=60_az_itd=0_mag=0__l=bag-shoe-hat-glove-desks-spoons-glove-blue-bag-hat-chairs-shoe-desks-toy-pen-green__r=glove-white-shoe-red-toy-green-pen-glove-pen-card-pen-sock-white-spoons-tables-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/13__side=r_itd=0_az=60_az_itd=0_mag=1__l=chairs-green-desks-red-sock-tables-desks-desks-bag-desks-sock-glove-card-red-spoons-glove__r=glove-glove-card-shoe-sock-toy-toy-red-sock-blue-hat-tables-glove-tables-glove-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/13__side=r_itd=0_az=30_az_itd=0_mag=0__l=desks-red-tables-chairs-tables-pen-white-tables-hat-desks-blue-card-chairs-card-glove-spoons__r=pen-chairs-spoons-tables-blue-desks-bag-spoons-chairs-pen-toy-pen-chairs-card-shoe-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/13__side=l_itd=0_az=60_az_itd=0_mag=1__l=desks-pen-chairs-spoons-chairs-shoe-green-hat-white-bag-desks-white-shoe-white-hat-red__r=bag-desks-blue-shoe-spoons-desks-shoe-card-toy-pen-hat-tables-shoe-desks-card-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/13__side=r_itd=0_az=60_az_itd=0_mag=0__l=card-chairs-glove-blue-toy-sock-spoons-red-spoons-green-hat-toy-card-glove-pen-spoons__r=tables-shoe-chairs-toy-tables-blue-glove-glove-glove-pen-pen-desks-card-green-sock-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/13__side=l_itd=0_az=30_az_itd=0_mag=1__l=shoe-white-glove-sock-toy-shoe-shoe-card-card-toy-tables-chairs-card-hat-desks-tables__r=sock-sock-desks-desks-desks-white-card-card-toy-white-tables-white-hat-tables-tables-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/13__side=l_itd=0_az=30_az_itd=0_mag=0__l=glove-spoons-hat-hat-pen-chairs-blue-toy-sock-hat-hat-pen-toy-tables-pen-chairs__r=tables-green-glove-card-blue-bag-spoons-glove-white-shoe-bag-spoons-toy-shoe-chairs-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/13__side=r_itd=0_az=30_az_itd=0_mag=1__l=sock-shoe-pen-tables-spoons-red-pen-hat-sock-pen-chairs-card-spoons-shoe-bag-desks__r=shoe-red-chairs-green-glove-desks-tables-glove-card-blue-bag-hat-tables-red-pen-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/14__side=l_itd=0_az=30_az_itd=0_mag=1__l=sock-card-shoe-desks-tables-spoons-red-spoons-desks-shoe-pen-spoons-spoons-desks-shoe-hat__r=glove-tables-white-tables-green-glove-pen-spoons-white-sock-red-toy-hat-white-toy-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/14__side=l_itd=0_az=60_az_itd=0_mag=0__l=spoons-hat-chairs-sock-tables-sock-toy-hat-desks-desks-glove-card-glove-glove-desks-blue__r=spoons-red-desks-toy-white-bag-green-desks-blue-sock-white-sock-sock-desks-sock-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/14__side=r_itd=0_az=30_az_itd=0_mag=0__l=bag-shoe-toy-spoons-green-shoe-toy-spoons-pen-tables-card-bag-chairs-shoe-tables-spoons__r=tables-green-sock-desks-card-sock-desks-red-hat-chairs-pen-toy-card-red-desks-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/14__side=l_itd=0_az=30_az_itd=0_mag=0__l=spoons-tables-shoe-red-hat-spoons-desks-toy-spoons-chairs-bag-chairs-tables-card-glove-shoe__r=spoons-blue-pen-card-spoons-toy-blue-desks-bag-shoe-toy-green-desks-blue-toy-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/14__side=r_itd=0_az=60_az_itd=0_mag=0__l=shoe-chairs-blue-toy-pen-blue-chairs-toy-pen-spoons-bag-tables-sock-red-pen-spoons__r=sock-shoe-card-sock-sock-bag-pen-red-shoe-shoe-glove-white-desks-desks-card-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/14__side=r_itd=0_az=60_az_itd=0_mag=1__l=pen-hat-desks-desks-bag-shoe-shoe-card-card-blue-bag-spoons-tables-sock-sock-spoons__r=sock-bag-green-bag-card-green-toy-glove-hat-glove-pen-desks-blue-tables-green-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/14__side=r_itd=0_az=30_az_itd=0_mag=1__l=tables-sock-hat-tables-pen-chairs-bag-card-chairs-tables-toy-shoe-bag-green-pen-hat__r=hat-green-toy-white-spoons-blue-desks-hat-bag-hat-hat-red-spoons-bag-desks-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/14__side=l_itd=0_az=60_az_itd=0_mag=1__l=bag-bag-spoons-pen-shoe-red-toy-sock-green-spoons-toy-desks-bag-spoons-pen-hat__r=spoons-red-spoons-red-spoons-tables-desks-tables-glove-sock-blue-sock-chairs-sock-red-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/1__side=l_itd=0_az=30_az_itd=0_mag=0__l=sock-card-sock-shoe-red-hat-sock-pen-white-spoons-sock-desks-red-glove-shoe-white__r=desks-green-glove-tables-toy-glove-tables-spoons-spoons-sock-toy-chairs-shoe-pen-tables-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/1__side=l_itd=0_az=60_az_itd=0_mag=1__l=chairs-card-sock-tables-shoe-card-white-hat-toy-pen-desks-bag-tables-toy-blue-glove__r=hat-blue-pen-card-chairs-desks-pen-sock-white-bag-shoe-green-spoons-pen-toy-bag.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/1__side=r_itd=0_az=30_az_itd=0_mag=0__l=bag-toy-chairs-shoe-pen-white-glove-spoons-sock-glove-green-desks-red-spoons-chairs-glove__r=card-desks-desks-tables-card-pen-sock-card-green-desks-card-bag-pen-tables-white-bag.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/1__side=r_itd=0_az=60_az_itd=0_mag=1__l=bag-glove-red-toy-tables-desks-glove-tables-card-glove-green-card-card-desks-shoe-pen__r=tables-bag-sock-sock-chairs-white-glove-hat-red-pen-toy-chairs-card-blue-spoons-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/1__side=l_itd=0_az=30_az_itd=0_mag=1__l=toy-spoons-hat-pen-shoe-card-tables-chairs-pen-card-desks-red-card-glove-pen-toy__r=chairs-green-glove-chairs-white-shoe-white-glove-toy-red-toy-glove-shoe-card-blue-tables.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/1__side=r_itd=0_az=30_az_itd=0_mag=1__l=glove-card-sock-blue-shoe-spoons-shoe-green-desks-card-toy-white-bag-hat-pen-desks__r=chairs-white-spoons-card-sock-toy-sock-toy-spoons-white-shoe-card-sock-tables-glove-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/1__side=l_itd=0_az=60_az_itd=0_mag=0__l=hat-pen-card-green-glove-card-white-glove-red-tables-bag-red-tables-hat-card-glove__r=glove-desks-bag-hat-toy-toy-desks-tables-hat-card-hat-shoe-glove-blue-card-spoons.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/1__side=r_itd=0_az=60_az_itd=0_mag=0__l=card-pen-glove-shoe-chairs-glove-green-hat-pen-glove-desks-toy-desks-pen-glove-chairs__r=pen-tables-red-bag-green-card-hat-desks-spoons-red-glove-desks-red-toy-white-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/2__side=l_itd=0_az=60_az_itd=0_mag=1__l=shoe-chairs-toy-green-card-sock-spoons-spoons-glove-sock-spoons-spoons-tables-desks-desks-chairs__r=tables-white-chairs-spoons-desks-toy-white-pen-card-red-shoe-green-chairs-glove-toy-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/2__side=l_itd=0_az=60_az_itd=0_mag=0__l=sock-white-pen-white-hat-sock-spoons-glove-green-toy-red-pen-pen-bag-red-shoe__r=hat-spoons-shoe-bag-pen-chairs-bag-sock-shoe-bag-hat-glove-red-spoons-spoons-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/2__side=r_itd=0_az=60_az_itd=0_mag=1__l=card-chairs-toy-card-bag-sock-tables-chairs-glove-hat-tables-chairs-red-pen-bag-sock__r=bag-blue-glove-glove-blue-pen-green-pen-blue-toy-green-glove-glove-glove-bag-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/2__side=l_itd=0_az=30_az_itd=0_mag=1__l=pen-spoons-card-sock-bag-desks-glove-toy-spoons-green-shoe-bag-red-toy-tables-hat__r=card-blue-glove-bag-shoe-green-tables-blue-sock-sock-card-chairs-hat-toy-hat-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/2__side=r_itd=0_az=30_az_itd=0_mag=0__l=shoe-glove-tables-tables-desks-sock-pen-shoe-shoe-card-shoe-shoe-red-tables-card-pen__r=bag-red-pen-spoons-desks-blue-tables-white-spoons-shoe-white-spoons-toy-chairs-desks-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/2__side=r_itd=0_az=30_az_itd=0_mag=1__l=spoons-bag-bag-chairs-blue-chairs-glove-sock-tables-glove-sock-desks-sock-glove-pen-card__r=tables-toy-white-pen-bag-toy-green-sock-green-shoe-toy-green-hat-sock-glove-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/2__side=l_itd=0_az=30_az_itd=0_mag=0__l=shoe-red-pen-toy-desks-red-shoe-shoe-shoe-blue-shoe-bag-card-shoe-green-sock__r=tables-shoe-card-white-chairs-card-spoons-spoons-tables-bag-chairs-green-sock-glove-glove-bag.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/2__side=r_itd=0_az=60_az_itd=0_mag=0__l=tables-white-glove-desks-glove-pen-bag-blue-card-glove-shoe-desks-blue-hat-spoons-red__r=bag-shoe-glove-shoe-pen-red-hat-shoe-card-tables-white-spoons-spoons-chairs-bag-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/3__side=l_itd=0_az=60_az_itd=0_mag=1__l=bag-tables-glove-pen-bag-glove-white-spoons-shoe-spoons-glove-glove-card-bag-shoe-chairs__r=glove-tables-green-tables-chairs-pen-tables-shoe-toy-blue-card-green-card-white-glove-blue.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/3__side=l_itd=0_az=30_az_itd=0_mag=0__l=sock-hat-card-green-sock-pen-card-pen-shoe-card-chairs-chairs-chairs-spoons-bag-toy__r=spoons-tables-sock-desks-card-shoe-blue-hat-green-bag-green-hat-bag-green-hat-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/3__side=l_itd=0_az=60_az_itd=0_mag=0__l=glove-shoe-spoons-green-hat-hat-sock-tables-pen-pen-toy-toy-shoe-spoons-blue-sock__r=sock-white-chairs-toy-toy-sock-blue-pen-sock-green-bag-tables-green-glove-chairs-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/3__side=r_itd=0_az=60_az_itd=0_mag=0__l=chairs-tables-sock-chairs-toy-tables-sock-pen-sock-hat-shoe-card-spoons-pen-white-spoons__r=card-red-desks-card-green-tables-shoe-red-pen-green-glove-card-white-card-desks-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/3__side=l_itd=0_az=30_az_itd=0_mag=1__l=shoe-toy-sock-glove-tables-sock-red-sock-sock-card-shoe-hat-card-card-tables-bag__r=chairs-blue-card-hat-hat-bag-spoons-desks-shoe-green-chairs-tables-blue-glove-white-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/3__side=r_itd=0_az=30_az_itd=0_mag=1__l=glove-tables-hat-bag-sock-tables-pen-chairs-desks-white-bag-white-sock-green-card-hat__r=sock-spoons-red-sock-pen-red-sock-card-shoe-chairs-shoe-hat-sock-toy-toy-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/3__side=r_itd=0_az=60_az_itd=0_mag=1__l=desks-sock-toy-white-spoons-card-hat-hat-toy-bag-desks-tables-toy-card-spoons-white__r=spoons-blue-chairs-pen-chairs-card-sock-chairs-blue-sock-spoons-card-red-card-sock-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/3__side=r_itd=0_az=30_az_itd=0_mag=0__l=glove-tables-red-chairs-pen-toy-glove-shoe-sock-white-sock-spoons-spoons-sock-shoe-sock__r=sock-spoons-hat-card-card-blue-pen-pen-chairs-card-hat-green-glove-pen-green-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/4__side=r_itd=0_az=60_az_itd=0_mag=1__l=toy-sock-desks-desks-hat-spoons-shoe-card-chairs-tables-card-card-sock-white-card-glove__r=pen-chairs-red-sock-sock-tables-white-chairs-green-sock-green-chairs-spoons-spoons-spoons-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/4__side=l_itd=0_az=30_az_itd=0_mag=0__l=tables-green-card-tables-spoons-hat-blue-toy-hat-glove-shoe-bag-tables-card-hat-green__r=chairs-bag-spoons-toy-pen-sock-hat-desks-green-card-glove-tables-red-tables-shoe-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/4__side=l_itd=0_az=60_az_itd=0_mag=1__l=tables-tables-card-chairs-tables-shoe-shoe-blue-hat-pen-bag-chairs-card-toy-white-bag__r=tables-red-tables-glove-toy-white-desks-bag-hat-red-toy-green-tables-tables-spoons-spoons.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/4__side=r_itd=0_az=60_az_itd=0_mag=0__l=desks-spoons-toy-tables-bag-glove-card-green-desks-green-card-shoe-card-desks-toy-blue__r=chairs-red-shoe-card-sock-tables-card-spoons-spoons-spoons-toy-bag-green-desks-spoons-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/4__side=l_itd=0_az=30_az_itd=0_mag=1__l=shoe-green-shoe-pen-sock-card-card-spoons-spoons-sock-shoe-desks-red-card-hat-glove__r=hat-toy-card-spoons-blue-tables-white-desks-white-toy-chairs-card-desks-bag-tables-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/4__side=l_itd=0_az=60_az_itd=0_mag=0__l=sock-desks-desks-green-sock-chairs-toy-glove-hat-toy-tables-bag-sock-toy-desks-sock__r=chairs-sock-card-shoe-bag-glove-glove-white-shoe-desks-green-desks-green-chairs-green-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/4__side=r_itd=0_az=30_az_itd=0_mag=0__l=chairs-toy-red-spoons-bag-toy-sock-blue-chairs-red-card-desks-sock-pen-blue-pen__r=sock-spoons-pen-bag-hat-pen-desks-shoe-pen-tables-sock-red-sock-glove-spoons-spoons.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/4__side=r_itd=0_az=30_az_itd=0_mag=1__l=card-toy-white-spoons-hat-card-sock-bag-chairs-bag-card-red-tables-desks-shoe-toy__r=desks-sock-chairs-sock-green-desks-pen-blue-pen-toy-glove-sock-glove-sock-white-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/5__side=l_itd=0_az=60_az_itd=0_mag=0__l=desks-tables-shoe-sock-spoons-blue-card-card-pen-red-glove-hat-bag-chairs-bag-hat__r=sock-blue-desks-spoons-chairs-desks-tables-white-glove-glove-glove-green-glove-desks-chairs-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/5__side=l_itd=0_az=30_az_itd=0_mag=1__l=glove-glove-desks-chairs-sock-pen-pen-bag-tables-sock-shoe-glove-green-desks-desks-card__r=tables-blue-card-white-sock-glove-blue-spoons-green-desks-blue-desks-card-card-hat-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/5__side=r_itd=0_az=60_az_itd=0_mag=0__l=tables-shoe-glove-sock-white-desks-card-spoons-green-spoons-desks-white-tables-white-card-glove__r=bag-red-pen-bag-shoe-pen-desks-shoe-hat-shoe-pen-spoons-card-hat-hat-spoons.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/5__side=r_itd=0_az=30_az_itd=0_mag=1__l=toy-red-bag-spoons-tables-pen-card-sock-chairs-hat-desks-shoe-sock-shoe-white-pen__r=sock-toy-spoons-pen-green-hat-shoe-glove-tables-red-pen-red-tables-hat-toy-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/5__side=l_itd=0_az=30_az_itd=0_mag=0__l=glove-tables-hat-red-card-white-spoons-bag-desks-tables-blue-spoons-card-blue-chairs-red__r=toy-toy-hat-spoons-spoons-shoe-pen-red-sock-sock-toy-hat-chairs-sock-spoons-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/5__side=l_itd=0_az=60_az_itd=0_mag=1__l=hat-card-white-toy-sock-glove-hat-sock-red-glove-green-chairs-desks-pen-chairs-white__r=card-hat-hat-spoons-green-spoons-pen-sock-spoons-desks-desks-pen-bag-green-chairs-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/5__side=r_itd=0_az=30_az_itd=0_mag=0__l=hat-sock-white-shoe-glove-card-white-toy-sock-white-shoe-toy-card-toy-toy-chairs__r=toy-pen-card-card-white-shoe-card-card-toy-spoons-hat-shoe-desks-pen-chairs-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/5__side=r_itd=0_az=60_az_itd=0_mag=1__l=toy-spoons-pen-pen-hat-green-hat-spoons-pen-toy-glove-glove-tables-card-bag-shoe__r=glove-spoons-card-red-shoe-bag-shoe-white-chairs-white-glove-glove-white-sock-card-spoons.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/6__side=r_itd=0_az=60_az_itd=0_mag=0__l=hat-desks-desks-hat-toy-glove-desks-red-pen-card-hat-bag-spoons-desks-chairs-chairs__r=toy-pen-pen-green-shoe-glove-spoons-chairs-desks-green-pen-card-toy-red-spoons-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/6__side=r_itd=0_az=30_az_itd=0_mag=1__l=shoe-blue-card-pen-hat-bag-pen-hat-chairs-card-tables-chairs-toy-card-card-white__r=tables-glove-card-card-green-pen-desks-green-sock-glove-green-pen-shoe-glove-bag-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/6__side=l_itd=0_az=60_az_itd=0_mag=0__l=pen-bag-toy-sock-sock-spoons-blue-pen-spoons-card-chairs-red-pen-card-sock-sock__r=hat-spoons-glove-sock-red-card-chairs-card-blue-pen-tables-card-desks-sock-chairs-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/6__side=l_itd=0_az=30_az_itd=0_mag=0__l=hat-chairs-bag-pen-glove-sock-blue-tables-toy-chairs-desks-glove-hat-sock-shoe-white__r=spoons-blue-sock-desks-hat-glove-spoons-spoons-chairs-white-spoons-card-blue-card-hat-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/6__side=r_itd=0_az=60_az_itd=0_mag=1__l=shoe-sock-toy-white-pen-spoons-chairs-green-bag-tables-shoe-hat-glove-glove-tables-chairs__r=sock-blue-bag-desks-shoe-hat-tables-hat-desks-desks-green-toy-hat-spoons-blue-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/6__side=l_itd=0_az=60_az_itd=0_mag=1__l=chairs-bag-card-card-glove-toy-desks-card-toy-spoons-sock-tables-white-chairs-white-pen__r=bag-desks-card-pen-blue-chairs-green-shoe-white-hat-red-card-bag-pen-glove-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/6__side=r_itd=0_az=30_az_itd=0_mag=0__l=glove-desks-desks-sock-glove-chairs-hat-white-tables-glove-bag-spoons-tables-glove-bag-glove__r=tables-card-desks-green-desks-blue-pen-glove-hat-green-tables-sock-red-tables-toy-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/6__side=l_itd=0_az=30_az_itd=0_mag=1__l=bag-spoons-pen-bag-chairs-sock-hat-hat-shoe-glove-pen-sock-chairs-red-pen-chairs__r=chairs-green-card-green-tables-glove-glove-shoe-green-hat-card-glove-bag-glove-desks-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/7__side=r_itd=0_az=60_az_itd=0_mag=1__l=pen-toy-tables-spoons-bag-green-card-hat-blue-sock-red-desks-green-hat-toy-bag__r=spoons-red-tables-red-toy-desks-card-chairs-bag-bag-card-tables-spoons-sock-spoons-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/7__side=l_itd=0_az=30_az_itd=0_mag=1__l=glove-toy-white-chairs-sock-toy-tables-card-chairs-card-glove-glove-tables-sock-white-glove__r=pen-card-sock-pen-desks-red-glove-toy-shoe-bag-red-chairs-white-hat-glove-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/7__side=r_itd=0_az=30_az_itd=0_mag=1__l=toy-green-toy-red-sock-card-card-sock-desks-glove-toy-glove-tables-chairs-spoons-green__r=spoons-spoons-hat-chairs-spoons-glove-tables-spoons-hat-shoe-red-tables-pen-white-card-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/7__side=r_itd=0_az=60_az_itd=0_mag=0__l=glove-spoons-sock-pen-card-toy-sock-hat-green-sock-card-red-spoons-tables-shoe-glove__r=sock-hat-red-spoons-green-chairs-blue-bag-bag-bag-chairs-bag-spoons-tables-green-tables.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/7__side=l_itd=0_az=30_az_itd=0_mag=0__l=spoons-spoons-sock-sock-chairs-white-desks-card-chairs-blue-spoons-hat-shoe-glove-glove-white__r=glove-red-hat-desks-toy-pen-shoe-card-toy-chairs-desks-green-spoons-green-hat-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/7__side=r_itd=0_az=30_az_itd=0_mag=0__l=toy-blue-pen-shoe-hat-red-hat-pen-chairs-pen-tables-toy-chairs-hat-hat-desks__r=spoons-toy-glove-white-shoe-pen-card-white-spoons-red-card-pen-tables-toy-hat-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/7__side=l_itd=0_az=60_az_itd=0_mag=0__l=card-tables-chairs-bag-shoe-bag-glove-card-glove-white-card-tables-tables-toy-hat-glove__r=chairs-card-blue-tables-bag-chairs-spoons-blue-bag-desks-toy-blue-card-white-hat-toy.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/7__side=l_itd=0_az=60_az_itd=0_mag=1__l=toy-sock-green-desks-red-desks-glove-toy-shoe-hat-blue-card-card-sock-spoons-desks__r=glove-desks-tables-spoons-sock-hat-white-toy-green-toy-toy-hat-blue-spoons-card-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/8__side=r_itd=0_az=30_az_itd=0_mag=0__l=desks-toy-shoe-red-card-chairs-chairs-hat-blue-toy-toy-red-tables-shoe-chairs-red__r=spoons-white-hat-bag-desks-hat-pen-sock-shoe-toy-chairs-card-spoons-white-tables-shoe.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/8__side=r_itd=0_az=60_az_itd=0_mag=1__l=tables-desks-spoons-hat-hat-white-toy-tables-toy-hat-sock-shoe-red-sock-shoe-green__r=spoons-bag-sock-white-hat-card-toy-white-sock-red-spoons-toy-toy-bag-shoe-tables.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/8__side=l_itd=0_az=60_az_itd=0_mag=0__l=hat-card-green-spoons-toy-sock-pen-hat-pen-chairs-shoe-bag-spoons-blue-toy-tables__r=card-desks-desks-sock-blue-toy-chairs-toy-spoons-blue-spoons-white-tables-chairs-glove-red.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/8__side=l_itd=0_az=30_az_itd=0_mag=1__l=pen-card-bag-spoons-toy-bag-pen-blue-chairs-sock-shoe-desks-shoe-glove-card-white__r=glove-tables-white-pen-red-pen-tables-spoons-tables-chairs-sock-blue-shoe-desks-bag-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/8__side=l_itd=0_az=60_az_itd=0_mag=1__l=hat-tables-shoe-spoons-tables-sock-red-tables-desks-pen-chairs-desks-spoons-toy-shoe-white__r=toy-chairs-white-sock-bag-hat-spoons-sock-green-card-white-toy-sock-toy-spoons-desks.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/8__side=r_itd=0_az=30_az_itd=0_mag=1__l=pen-chairs-shoe-pen-desks-chairs-pen-tables-spoons-desks-card-pen-pen-blue-bag-hat__r=sock-blue-shoe-bag-toy-green-glove-green-tables-shoe-bag-green-spoons-bag-card-chairs.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/8__side=r_itd=0_az=60_az_itd=0_mag=0__l=toy-shoe-chairs-hat-glove-desks-chairs-chairs-tables-glove-shoe-spoons-chairs-glove-red-shoe__r=shoe-tables-blue-toy-white-sock-white-hat-green-spoons-white-sock-glove-bag-glove-glove.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/8__side=l_itd=0_az=30_az_itd=0_mag=0__l=desks-spoons-desks-desks-tables-blue-toy-chairs-tables-bag-bag-pen-spoons-blue-card-red__r=hat-hat-spoons-green-glove-spoons-bag-blue-chairs-sock-spoons-shoe-bag-chairs-glove-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=0/9__side=r_itd=0_az=30_az_itd=0_mag=0__l=desks-glove-toy-spoons-green-toy-red-card-glove-bag-desks-pen-spoons-spoons-desks-toy__r=shoe-spoons-glove-glove-glove-shoe-pen-hat-green-desks-blue-pen-bag-spoons-red-pen.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=0/9__side=l_itd=0_az=60_az_itd=0_mag=0__l=spoons-hat-hat-sock-red-hat-toy-chairs-chairs-blue-chairs-card-desks-sock-shoe-card__r=card-blue-glove-pen-desks-spoons-hat-white-chairs-hat-desks-tables-glove-tables-chairs-green.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=30_az_itd=0_mag=1/9__side=r_itd=0_az=30_az_itd=0_mag=1__l=glove-card-spoons-blue-hat-card-card-spoons-red-card-glove-pen-sock-tables-chairs-toy__r=sock-hat-pen-chairs-shoe-spoons-blue-toy-bag-bag-white-shoe-chairs-shoe-desks-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=0/9__side=r_itd=0_az=60_az_itd=0_mag=0__l=spoons-spoons-toy-shoe-white-pen-shoe-pen-desks-hat-toy-red-hat-chairs-card-blue__r=toy-card-toy-sock-chairs-chairs-blue-hat-pen-blue-hat-chairs-shoe-glove-toy-card.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=r_itd=0_az=60_az_itd=0_mag=1/9__side=r_itd=0_az=60_az_itd=0_mag=1__l=chairs-sock-sock-desks-desks-tables-white-card-hat-shoe-white-spoons-toy-spoons-glove-spoons__r=tables-spoons-hat-glove-blue-bag-spoons-hat-red-sock-toy-toy-glove-red-glove-white.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=60_az_itd=0_mag=1/9__side=l_itd=0_az=60_az_itd=0_mag=1__l=pen-blue-card-red-glove-card-card-shoe-glove-card-desks-spoons-hat-tables-bag-shoe__r=shoe-card-bag-glove-spoons-blue-desks-red-spoons-red-hat-green-pen-shoe-card-hat.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=1/9__side=l_itd=0_az=30_az_itd=0_mag=1__l=sock-bag-sock-green-tables-spoons-sock-shoe-shoe-glove-shoe-chairs-pen-chairs-blue-desks__r=pen-green-sock-glove-desks-glove-sock-green-glove-desks-sock-red-hat-sock-chairs-bag.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-bici-color/s_mild_bici_color_1_snr=2/side=l_itd=0_az=30_az_itd=0_mag=0/9__side=l_itd=0_az=30_az_itd=0_mag=0__l=shoe-bag-sock-green-shoe-glove-desks-bag-tables-green-desks-hat-desks-shoe-shoe-shoe__r=tables-card-tables-pen-hat-bag-hat-white-chairs-toy-tables-white-desks-red-spoons-blue.wav</t>
   </si>
 </sst>
 </file>
@@ -1083,13 +1470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A34A359-2E90-4746-A2D9-FD389E81E63D}">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5673,7 +6063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5696,7 +6086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5719,7 +6109,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5742,7 +6132,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -5771,7 +6161,7 @@
         <v>12062.084848999901</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5803,7 +6193,7 @@
         <v>10749.034310936901</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5835,7 +6225,7 @@
         <v>11463.718948006601</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -5867,7 +6257,7 @@
         <v>12227.4222348928</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5888,6 +6278,4230 @@
       </c>
       <c r="G184" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>225</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>226</v>
+      </c>
+      <c r="G185" t="s">
+        <v>227</v>
+      </c>
+      <c r="H185">
+        <v>2439.9494450092302</v>
+      </c>
+      <c r="I185">
+        <v>4824.63162100315</v>
+      </c>
+      <c r="J185">
+        <v>6596.5700850188696</v>
+      </c>
+      <c r="K185">
+        <v>8676.4773519933206</v>
+      </c>
+      <c r="L185">
+        <v>10815.65387398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>225</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186" t="s">
+        <v>228</v>
+      </c>
+      <c r="G186" t="s">
+        <v>229</v>
+      </c>
+      <c r="H186">
+        <v>6379.9602059721901</v>
+      </c>
+      <c r="I186">
+        <v>8003.8645209670003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>225</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>8</v>
+      </c>
+      <c r="F187" t="s">
+        <v>230</v>
+      </c>
+      <c r="G187" t="s">
+        <v>231</v>
+      </c>
+      <c r="H187">
+        <v>3308.44840097427</v>
+      </c>
+      <c r="I187">
+        <v>6222.8208259940102</v>
+      </c>
+      <c r="J187">
+        <v>7268.4376999735796</v>
+      </c>
+      <c r="K187">
+        <v>8892.4355689883196</v>
+      </c>
+      <c r="L187">
+        <v>10342.1099459826</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>225</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>232</v>
+      </c>
+      <c r="G188" t="s">
+        <v>233</v>
+      </c>
+      <c r="H188">
+        <v>5322.66722598671</v>
+      </c>
+      <c r="I188">
+        <v>6826.6804219782298</v>
+      </c>
+      <c r="J188">
+        <v>9213.8849479854107</v>
+      </c>
+      <c r="K188">
+        <v>10930.728214979101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>225</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>234</v>
+      </c>
+      <c r="G189" t="s">
+        <v>235</v>
+      </c>
+      <c r="H189">
+        <v>6610.4132619798102</v>
+      </c>
+      <c r="I189">
+        <v>7908.9793860018199</v>
+      </c>
+      <c r="J189">
+        <v>11042.3054369986</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>225</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>7</v>
+      </c>
+      <c r="F190" t="s">
+        <v>236</v>
+      </c>
+      <c r="G190" t="s">
+        <v>237</v>
+      </c>
+      <c r="H190">
+        <v>6011.7153800129799</v>
+      </c>
+      <c r="I190">
+        <v>7676.2134000062897</v>
+      </c>
+      <c r="J190">
+        <v>10875.649810999599</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>225</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191" t="s">
+        <v>238</v>
+      </c>
+      <c r="G191" t="s">
+        <v>239</v>
+      </c>
+      <c r="H191">
+        <v>3862.0611459612801</v>
+      </c>
+      <c r="I191">
+        <v>5377.7071149945205</v>
+      </c>
+      <c r="J191">
+        <v>10534.107650965399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>225</v>
+      </c>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>240</v>
+      </c>
+      <c r="G192" t="s">
+        <v>241</v>
+      </c>
+      <c r="H192">
+        <v>2741.3107050061199</v>
+      </c>
+      <c r="I192">
+        <v>4512.2305810153402</v>
+      </c>
+      <c r="J192">
+        <v>6029.2082040011801</v>
+      </c>
+      <c r="K192">
+        <v>7398.6268059909298</v>
+      </c>
+      <c r="L192">
+        <v>9077.0059750080109</v>
+      </c>
+      <c r="M192">
+        <v>11054.1095290184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>225</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>232</v>
+      </c>
+      <c r="G193" t="s">
+        <v>242</v>
+      </c>
+      <c r="H193">
+        <v>6700.3379609882804</v>
+      </c>
+      <c r="I193">
+        <v>8644.1744969785195</v>
+      </c>
+      <c r="J193">
+        <v>10684.226732999001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>240</v>
+      </c>
+      <c r="G194" t="s">
+        <v>243</v>
+      </c>
+      <c r="H194">
+        <v>2856.6996430158601</v>
+      </c>
+      <c r="I194">
+        <v>4048.7944419979999</v>
+      </c>
+      <c r="J194">
+        <v>6128.7730470001698</v>
+      </c>
+      <c r="K194">
+        <v>6928.6730659902096</v>
+      </c>
+      <c r="L194">
+        <v>10680.723809003801</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D195">
+        <v>11</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s">
+        <v>228</v>
+      </c>
+      <c r="G195" t="s">
+        <v>244</v>
+      </c>
+      <c r="H195">
+        <v>6164.4264740049803</v>
+      </c>
+      <c r="I195">
+        <v>7556.5102299749797</v>
+      </c>
+      <c r="J195">
+        <v>9820.4399420022892</v>
+      </c>
+      <c r="K195">
+        <v>11188.5915409922</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>225</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D196">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>238</v>
+      </c>
+      <c r="G196" t="s">
+        <v>245</v>
+      </c>
+      <c r="H196">
+        <v>5454.6877540051901</v>
+      </c>
+      <c r="I196">
+        <v>7430.6146500110599</v>
+      </c>
+      <c r="J196">
+        <v>10497.2138360142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>225</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D197">
+        <v>13</v>
+      </c>
+      <c r="E197">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>226</v>
+      </c>
+      <c r="G197" t="s">
+        <v>246</v>
+      </c>
+      <c r="H197">
+        <v>4048.93607801198</v>
+      </c>
+      <c r="I197">
+        <v>6148.6215600073301</v>
+      </c>
+      <c r="J197">
+        <v>7876.6529590189402</v>
+      </c>
+      <c r="K197">
+        <v>9828.7159439921306</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D198">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>8</v>
+      </c>
+      <c r="F198" t="s">
+        <v>230</v>
+      </c>
+      <c r="G198" t="s">
+        <v>247</v>
+      </c>
+      <c r="H198">
+        <v>3331.2649179995001</v>
+      </c>
+      <c r="I198">
+        <v>5179.1247889995502</v>
+      </c>
+      <c r="J198">
+        <v>7519.3763020038596</v>
+      </c>
+      <c r="K198">
+        <v>9075.1370280086994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>225</v>
+      </c>
+      <c r="B199">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D199">
+        <v>15</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>234</v>
+      </c>
+      <c r="G199" t="s">
+        <v>248</v>
+      </c>
+      <c r="H199">
+        <v>3561.35738697648</v>
+      </c>
+      <c r="I199">
+        <v>8377.2294650077802</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D200">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>236</v>
+      </c>
+      <c r="G200" t="s">
+        <v>249</v>
+      </c>
+      <c r="H200">
+        <v>2684.73866698145</v>
+      </c>
+      <c r="I200">
+        <v>4060.7664889991202</v>
+      </c>
+      <c r="J200">
+        <v>5420.8435000181198</v>
+      </c>
+      <c r="K200">
+        <v>6596.7524909973099</v>
+      </c>
+      <c r="L200">
+        <v>7892.8248110115501</v>
+      </c>
+      <c r="M200">
+        <v>10132.780835002601</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>225</v>
+      </c>
+      <c r="B201">
+        <v>17</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D201">
+        <v>17</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G201" t="s">
+        <v>250</v>
+      </c>
+      <c r="H201">
+        <v>2901.8869169950399</v>
+      </c>
+      <c r="I201">
+        <v>5253.8236249983302</v>
+      </c>
+      <c r="J201">
+        <v>7648.4613310098603</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>225</v>
+      </c>
+      <c r="B202">
+        <v>18</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D202">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>234</v>
+      </c>
+      <c r="G202" t="s">
+        <v>251</v>
+      </c>
+      <c r="H202">
+        <v>3710.71897998452</v>
+      </c>
+      <c r="I202">
+        <v>5026.5774860084002</v>
+      </c>
+      <c r="J202">
+        <v>6850.7029650211298</v>
+      </c>
+      <c r="K202">
+        <v>8298.6404130160809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>225</v>
+      </c>
+      <c r="B203">
+        <v>19</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D203">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>230</v>
+      </c>
+      <c r="G203" t="s">
+        <v>252</v>
+      </c>
+      <c r="H203">
+        <v>2483.82053697109</v>
+      </c>
+      <c r="I203">
+        <v>4531.6634269654696</v>
+      </c>
+      <c r="J203">
+        <v>6843.7233549654402</v>
+      </c>
+      <c r="K203">
+        <v>9550.3534599840605</v>
+      </c>
+      <c r="L203">
+        <v>11275.6120559871</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>225</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D204">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>226</v>
+      </c>
+      <c r="G204" t="s">
+        <v>253</v>
+      </c>
+      <c r="H204">
+        <v>3272.1760039925498</v>
+      </c>
+      <c r="I204">
+        <v>4048.1245800256702</v>
+      </c>
+      <c r="J204">
+        <v>5576.1183480024301</v>
+      </c>
+      <c r="K204">
+        <v>7315.6087260246204</v>
+      </c>
+      <c r="L204">
+        <v>9248.1537660062295</v>
+      </c>
+      <c r="M204">
+        <v>10968.072321027499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>225</v>
+      </c>
+      <c r="B205">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D205">
+        <v>21</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205" t="s">
+        <v>240</v>
+      </c>
+      <c r="G205" t="s">
+        <v>254</v>
+      </c>
+      <c r="H205">
+        <v>2523.39877900481</v>
+      </c>
+      <c r="I205">
+        <v>3803.39673098921</v>
+      </c>
+      <c r="J205">
+        <v>7155.3916450142797</v>
+      </c>
+      <c r="K205">
+        <v>9691.3921329975092</v>
+      </c>
+      <c r="L205">
+        <v>11324.024505019101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206">
+        <v>22</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D206">
+        <v>22</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>232</v>
+      </c>
+      <c r="G206" t="s">
+        <v>255</v>
+      </c>
+      <c r="H206">
+        <v>2790.1767730116799</v>
+      </c>
+      <c r="I206">
+        <v>4998.1806759834199</v>
+      </c>
+      <c r="J206">
+        <v>8702.0692809820102</v>
+      </c>
+      <c r="K206">
+        <v>11118.267773032099</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207">
+        <v>23</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D207">
+        <v>23</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>238</v>
+      </c>
+      <c r="G207" t="s">
+        <v>256</v>
+      </c>
+      <c r="H207">
+        <v>2427.2052190005702</v>
+      </c>
+      <c r="I207">
+        <v>4303.7352769970803</v>
+      </c>
+      <c r="J207">
+        <v>5783.8138999938901</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208">
+        <v>24</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D208">
+        <v>24</v>
+      </c>
+      <c r="E208">
+        <v>7</v>
+      </c>
+      <c r="F208" t="s">
+        <v>236</v>
+      </c>
+      <c r="G208" t="s">
+        <v>257</v>
+      </c>
+      <c r="H208">
+        <v>3703.1431849896899</v>
+      </c>
+      <c r="I208">
+        <v>7903.6733419895099</v>
+      </c>
+      <c r="J208">
+        <v>8815.0987150072997</v>
+      </c>
+      <c r="K208">
+        <v>10355.7460330128</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209">
+        <v>25</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D209">
+        <v>25</v>
+      </c>
+      <c r="E209">
+        <v>8</v>
+      </c>
+      <c r="F209" t="s">
+        <v>230</v>
+      </c>
+      <c r="G209" t="s">
+        <v>258</v>
+      </c>
+      <c r="H209">
+        <v>3046.93958899378</v>
+      </c>
+      <c r="I209">
+        <v>4318.8695610165596</v>
+      </c>
+      <c r="J209">
+        <v>5606.8989560008004</v>
+      </c>
+      <c r="K209">
+        <v>8047.4623920321401</v>
+      </c>
+      <c r="L209">
+        <v>9070.9127120077592</v>
+      </c>
+      <c r="M209">
+        <v>10550.9357140064</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>225</v>
+      </c>
+      <c r="B210">
+        <v>26</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D210">
+        <v>26</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>236</v>
+      </c>
+      <c r="G210" t="s">
+        <v>259</v>
+      </c>
+      <c r="H210">
+        <v>3096.5199320018201</v>
+      </c>
+      <c r="I210">
+        <v>8835.2841800153201</v>
+      </c>
+      <c r="J210">
+        <v>11168.681726008601</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D211">
+        <v>27</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211" t="s">
+        <v>228</v>
+      </c>
+      <c r="G211" t="s">
+        <v>260</v>
+      </c>
+      <c r="H211">
+        <v>3817.2937029898098</v>
+      </c>
+      <c r="I211">
+        <v>5193.3690529763699</v>
+      </c>
+      <c r="J211">
+        <v>6233.3022269904604</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B212">
+        <v>28</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D212">
+        <v>28</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>226</v>
+      </c>
+      <c r="G212" t="s">
+        <v>261</v>
+      </c>
+      <c r="H212">
+        <v>3814.8866460025301</v>
+      </c>
+      <c r="I212">
+        <v>5142.6144079863998</v>
+      </c>
+      <c r="J212">
+        <v>8227.1527079939806</v>
+      </c>
+      <c r="K212">
+        <v>10275.221688985799</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213">
+        <v>29</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D213">
+        <v>29</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>238</v>
+      </c>
+      <c r="G213" t="s">
+        <v>262</v>
+      </c>
+      <c r="H213">
+        <v>2622.9618230164001</v>
+      </c>
+      <c r="I213">
+        <v>6767.6749000251202</v>
+      </c>
+      <c r="J213">
+        <v>8522.4597539901697</v>
+      </c>
+      <c r="K213">
+        <v>10907.113602012299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214">
+        <v>30</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D214">
+        <v>30</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214" t="s">
+        <v>234</v>
+      </c>
+      <c r="G214" t="s">
+        <v>263</v>
+      </c>
+      <c r="H214">
+        <v>2677.5275000035699</v>
+      </c>
+      <c r="I214">
+        <v>3757.2800040245002</v>
+      </c>
+      <c r="J214">
+        <v>4906.1705750226902</v>
+      </c>
+      <c r="K214">
+        <v>8709.1525550186598</v>
+      </c>
+      <c r="L214">
+        <v>11245.211406022299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>225</v>
+      </c>
+      <c r="B215">
+        <v>31</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D215">
+        <v>31</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>232</v>
+      </c>
+      <c r="G215" t="s">
+        <v>264</v>
+      </c>
+      <c r="H215">
+        <v>2960.0114890038899</v>
+      </c>
+      <c r="I215">
+        <v>3840.0593340098799</v>
+      </c>
+      <c r="J215">
+        <v>8175.9449599981299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216">
+        <v>32</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D216">
+        <v>32</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216" t="s">
+        <v>240</v>
+      </c>
+      <c r="G216" t="s">
+        <v>265</v>
+      </c>
+      <c r="H216">
+        <v>2785.0532010197599</v>
+      </c>
+      <c r="I216">
+        <v>4503.4226600229704</v>
+      </c>
+      <c r="J216">
+        <v>6815.3565150499298</v>
+      </c>
+      <c r="K216">
+        <v>8727.5652890205292</v>
+      </c>
+      <c r="L216">
+        <v>10871.4327860176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217">
+        <v>33</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D217">
+        <v>33</v>
+      </c>
+      <c r="E217">
+        <v>7</v>
+      </c>
+      <c r="F217" t="s">
+        <v>236</v>
+      </c>
+      <c r="G217" t="s">
+        <v>266</v>
+      </c>
+      <c r="H217">
+        <v>2959.44061297178</v>
+      </c>
+      <c r="I217">
+        <v>5199.4108819663497</v>
+      </c>
+      <c r="J217">
+        <v>6863.5336880087798</v>
+      </c>
+      <c r="K217">
+        <v>9519.3206740021706</v>
+      </c>
+      <c r="L217">
+        <v>10967.367731004901</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>225</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D218">
+        <v>34</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218" t="s">
+        <v>238</v>
+      </c>
+      <c r="G218" t="s">
+        <v>267</v>
+      </c>
+      <c r="H218">
+        <v>6107.2809929847699</v>
+      </c>
+      <c r="I218">
+        <v>7403.5392020046702</v>
+      </c>
+      <c r="J218">
+        <v>9259.3978590071201</v>
+      </c>
+      <c r="K218">
+        <v>11083.4286859929</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219">
+        <v>35</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D219">
+        <v>35</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219" t="s">
+        <v>240</v>
+      </c>
+      <c r="G219" t="s">
+        <v>268</v>
+      </c>
+      <c r="H219">
+        <v>2539.3375239670199</v>
+      </c>
+      <c r="I219">
+        <v>4578.4137369692298</v>
+      </c>
+      <c r="J219">
+        <v>7970.4197300076403</v>
+      </c>
+      <c r="K219">
+        <v>10874.463321000299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220">
+        <v>36</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D220">
+        <v>36</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>228</v>
+      </c>
+      <c r="G220" t="s">
+        <v>269</v>
+      </c>
+      <c r="H220">
+        <v>5743.2804930210104</v>
+      </c>
+      <c r="I220">
+        <v>7074.7830750048097</v>
+      </c>
+      <c r="J220">
+        <v>8986.7096440196001</v>
+      </c>
+      <c r="K220">
+        <v>10170.672818004999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
+        <v>37</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D221">
+        <v>37</v>
+      </c>
+      <c r="E221">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>230</v>
+      </c>
+      <c r="G221" t="s">
+        <v>270</v>
+      </c>
+      <c r="H221">
+        <v>3783.1752200126598</v>
+      </c>
+      <c r="I221">
+        <v>4783.2275089919503</v>
+      </c>
+      <c r="J221">
+        <v>6350.7222909927304</v>
+      </c>
+      <c r="K221">
+        <v>7510.6813739836198</v>
+      </c>
+      <c r="L221">
+        <v>9190.7198339998704</v>
+      </c>
+      <c r="M221">
+        <v>10990.727595001399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>38</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D222">
+        <v>38</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>232</v>
+      </c>
+      <c r="G222" t="s">
+        <v>271</v>
+      </c>
+      <c r="H222">
+        <v>2597.8421790003699</v>
+      </c>
+      <c r="I222">
+        <v>5342.7597950398904</v>
+      </c>
+      <c r="J222">
+        <v>7869.6767660081296</v>
+      </c>
+      <c r="K222">
+        <v>11125.754784017799</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>39</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D223">
+        <v>39</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" t="s">
+        <v>272</v>
+      </c>
+      <c r="H223">
+        <v>2995.6982300281502</v>
+      </c>
+      <c r="I223">
+        <v>4675.62880802154</v>
+      </c>
+      <c r="J223">
+        <v>6995.6403760015901</v>
+      </c>
+      <c r="K223">
+        <v>11091.556611001401</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>40</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D224">
+        <v>40</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
+        <v>234</v>
+      </c>
+      <c r="G224" t="s">
+        <v>273</v>
+      </c>
+      <c r="H224">
+        <v>2926.21377798914</v>
+      </c>
+      <c r="I224">
+        <v>7406.3415509760298</v>
+      </c>
+      <c r="J224">
+        <v>9702.1866269707607</v>
+      </c>
+      <c r="K224">
+        <v>10998.316817969</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>41</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D225">
+        <v>41</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>232</v>
+      </c>
+      <c r="G225" t="s">
+        <v>274</v>
+      </c>
+      <c r="H225">
+        <v>3314.9697829782899</v>
+      </c>
+      <c r="I225">
+        <v>4443.1942869722798</v>
+      </c>
+      <c r="J225">
+        <v>5603.0806230008602</v>
+      </c>
+      <c r="K225">
+        <v>7206.8375439941801</v>
+      </c>
+      <c r="L225">
+        <v>10151.585150986901</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>42</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D226">
+        <v>42</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+      <c r="F226" t="s">
+        <v>236</v>
+      </c>
+      <c r="G226" t="s">
+        <v>275</v>
+      </c>
+      <c r="H226">
+        <v>3081.1966159939702</v>
+      </c>
+      <c r="I226">
+        <v>5225.3125819861798</v>
+      </c>
+      <c r="J226">
+        <v>11129.2908460199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>43</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D227">
+        <v>43</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="F227" t="s">
+        <v>240</v>
+      </c>
+      <c r="G227" t="s">
+        <v>276</v>
+      </c>
+      <c r="H227">
+        <v>2666.4974589943799</v>
+      </c>
+      <c r="I227">
+        <v>6362.4290069937697</v>
+      </c>
+      <c r="J227">
+        <v>9890.4366289675199</v>
+      </c>
+      <c r="K227">
+        <v>10829.5268489718</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>44</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D228">
+        <v>44</v>
+      </c>
+      <c r="E228">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>226</v>
+      </c>
+      <c r="G228" t="s">
+        <v>277</v>
+      </c>
+      <c r="H228">
+        <v>3531.3448799848502</v>
+      </c>
+      <c r="I228">
+        <v>5856.3623819947197</v>
+      </c>
+      <c r="J228">
+        <v>8707.3624809682296</v>
+      </c>
+      <c r="K228">
+        <v>10200.3998229801</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>45</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D229">
+        <v>45</v>
+      </c>
+      <c r="E229">
+        <v>8</v>
+      </c>
+      <c r="F229" t="s">
+        <v>230</v>
+      </c>
+      <c r="G229" t="s">
+        <v>278</v>
+      </c>
+      <c r="H229">
+        <v>3514.8712310194901</v>
+      </c>
+      <c r="I229">
+        <v>5099.38973000645</v>
+      </c>
+      <c r="J229">
+        <v>8770.8717970252001</v>
+      </c>
+      <c r="K229">
+        <v>10730.853534013</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>225</v>
+      </c>
+      <c r="B230">
+        <v>46</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D230">
+        <v>46</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230" t="s">
+        <v>238</v>
+      </c>
+      <c r="G230" t="s">
+        <v>279</v>
+      </c>
+      <c r="H230">
+        <v>3240.8348970115098</v>
+      </c>
+      <c r="I230">
+        <v>4651.0849840044903</v>
+      </c>
+      <c r="J230">
+        <v>9341.7627080082893</v>
+      </c>
+      <c r="K230">
+        <v>10248.881294995501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>225</v>
+      </c>
+      <c r="B231">
+        <v>47</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D231">
+        <v>47</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>234</v>
+      </c>
+      <c r="G231" t="s">
+        <v>280</v>
+      </c>
+      <c r="H231">
+        <v>3599.0860650241302</v>
+      </c>
+      <c r="I231">
+        <v>4277.8615880012503</v>
+      </c>
+      <c r="J231">
+        <v>5330.7831770181601</v>
+      </c>
+      <c r="K231">
+        <v>8482.8353600203991</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>225</v>
+      </c>
+      <c r="B232">
+        <v>48</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D232">
+        <v>48</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232" t="s">
+        <v>228</v>
+      </c>
+      <c r="G232" t="s">
+        <v>281</v>
+      </c>
+      <c r="H232">
+        <v>3869.3190889656498</v>
+      </c>
+      <c r="I232">
+        <v>5165.3675099909296</v>
+      </c>
+      <c r="J232">
+        <v>6741.2906909883004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>225</v>
+      </c>
+      <c r="B233">
+        <v>49</v>
+      </c>
+      <c r="C233" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D233">
+        <v>49</v>
+      </c>
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>226</v>
+      </c>
+      <c r="G233" t="s">
+        <v>282</v>
+      </c>
+      <c r="H233">
+        <v>4699.1797080039896</v>
+      </c>
+      <c r="I233">
+        <v>6691.10449600219</v>
+      </c>
+      <c r="J233">
+        <v>8403.1264870166706</v>
+      </c>
+      <c r="K233">
+        <v>10935.1376350224</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+      <c r="C234" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D234">
+        <v>50</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234" t="s">
+        <v>228</v>
+      </c>
+      <c r="G234" t="s">
+        <v>283</v>
+      </c>
+      <c r="H234">
+        <v>3521.00904601812</v>
+      </c>
+      <c r="I234">
+        <v>5017.0363030135604</v>
+      </c>
+      <c r="J234">
+        <v>5817.04284602403</v>
+      </c>
+      <c r="K234">
+        <v>8585.01385301351</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235">
+        <v>51</v>
+      </c>
+      <c r="C235" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D235">
+        <v>51</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235" t="s">
+        <v>240</v>
+      </c>
+      <c r="G235" t="s">
+        <v>284</v>
+      </c>
+      <c r="H235">
+        <v>4828.5262950062697</v>
+      </c>
+      <c r="I235">
+        <v>6572.4553729891704</v>
+      </c>
+      <c r="J235">
+        <v>8052.4651010036396</v>
+      </c>
+      <c r="K235">
+        <v>9460.6039700210094</v>
+      </c>
+      <c r="L235">
+        <v>10716.5990270078</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>225</v>
+      </c>
+      <c r="B236">
+        <v>52</v>
+      </c>
+      <c r="C236" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D236">
+        <v>52</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236" t="s">
+        <v>238</v>
+      </c>
+      <c r="G236" t="s">
+        <v>285</v>
+      </c>
+      <c r="H236">
+        <v>6910.3539830148202</v>
+      </c>
+      <c r="I236">
+        <v>7942.3475250005704</v>
+      </c>
+      <c r="J236">
+        <v>9942.7521030008793</v>
+      </c>
+      <c r="K236">
+        <v>10873.838215023199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237">
+        <v>53</v>
+      </c>
+      <c r="C237" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D237">
+        <v>53</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>232</v>
+      </c>
+      <c r="G237" t="s">
+        <v>286</v>
+      </c>
+      <c r="H237">
+        <v>3967.0556610226599</v>
+      </c>
+      <c r="I237">
+        <v>5119.1135019958001</v>
+      </c>
+      <c r="J237">
+        <v>7441.3292590081601</v>
+      </c>
+      <c r="K237">
+        <v>8528.5724440217</v>
+      </c>
+      <c r="L237">
+        <v>10771.494731992399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238">
+        <v>54</v>
+      </c>
+      <c r="C238" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D238">
+        <v>54</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s">
+        <v>234</v>
+      </c>
+      <c r="G238" t="s">
+        <v>287</v>
+      </c>
+      <c r="H238">
+        <v>3080.3086099922598</v>
+      </c>
+      <c r="I238">
+        <v>7277.5546589791702</v>
+      </c>
+      <c r="J238">
+        <v>8605.6357190012895</v>
+      </c>
+      <c r="K238">
+        <v>11149.7842859625</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239">
+        <v>55</v>
+      </c>
+      <c r="C239" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D239">
+        <v>55</v>
+      </c>
+      <c r="E239">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
+        <v>236</v>
+      </c>
+      <c r="G239" t="s">
+        <v>288</v>
+      </c>
+      <c r="H239">
+        <v>5632.36517301201</v>
+      </c>
+      <c r="I239">
+        <v>6808.4779469966797</v>
+      </c>
+      <c r="J239">
+        <v>8669.1790669858401</v>
+      </c>
+      <c r="K239">
+        <v>10132.9027980268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>225</v>
+      </c>
+      <c r="B240">
+        <v>56</v>
+      </c>
+      <c r="C240" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D240">
+        <v>56</v>
+      </c>
+      <c r="E240">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>230</v>
+      </c>
+      <c r="G240" t="s">
+        <v>289</v>
+      </c>
+      <c r="H240">
+        <v>3127.5539639890098</v>
+      </c>
+      <c r="I240">
+        <v>4343.4868049919596</v>
+      </c>
+      <c r="J240">
+        <v>7499.1086319982996</v>
+      </c>
+      <c r="K240">
+        <v>9279.5229449868202</v>
+      </c>
+      <c r="L240">
+        <v>10655.538987994099</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>225</v>
+      </c>
+      <c r="B241">
+        <v>57</v>
+      </c>
+      <c r="C241" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D241">
+        <v>57</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+      <c r="F241" t="s">
+        <v>228</v>
+      </c>
+      <c r="G241" t="s">
+        <v>290</v>
+      </c>
+      <c r="H241">
+        <v>3748.0521239936302</v>
+      </c>
+      <c r="I241">
+        <v>6134.3988399803602</v>
+      </c>
+      <c r="J241">
+        <v>8996.4933150112593</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>225</v>
+      </c>
+      <c r="B242">
+        <v>58</v>
+      </c>
+      <c r="C242" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D242">
+        <v>58</v>
+      </c>
+      <c r="E242">
+        <v>7</v>
+      </c>
+      <c r="F242" t="s">
+        <v>236</v>
+      </c>
+      <c r="G242" t="s">
+        <v>291</v>
+      </c>
+      <c r="H242">
+        <v>2882.3244200050799</v>
+      </c>
+      <c r="I242">
+        <v>4122.3462499976104</v>
+      </c>
+      <c r="J242">
+        <v>6690.21462500095</v>
+      </c>
+      <c r="K242">
+        <v>8093.7791579961704</v>
+      </c>
+      <c r="L242">
+        <v>9563.0852079987508</v>
+      </c>
+      <c r="M242">
+        <v>10554.643003016699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243">
+        <v>59</v>
+      </c>
+      <c r="C243" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D243">
+        <v>59</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243" t="s">
+        <v>238</v>
+      </c>
+      <c r="G243" t="s">
+        <v>292</v>
+      </c>
+      <c r="H243">
+        <v>2504.2617840170801</v>
+      </c>
+      <c r="I243">
+        <v>4273.2136709690003</v>
+      </c>
+      <c r="J243">
+        <v>5648.1971170008101</v>
+      </c>
+      <c r="K243">
+        <v>6751.8387610018199</v>
+      </c>
+      <c r="L243">
+        <v>7871.8404509723096</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>225</v>
+      </c>
+      <c r="B244">
+        <v>60</v>
+      </c>
+      <c r="C244" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D244">
+        <v>60</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>232</v>
+      </c>
+      <c r="G244" t="s">
+        <v>293</v>
+      </c>
+      <c r="H244">
+        <v>4034.27744796872</v>
+      </c>
+      <c r="I244">
+        <v>7210.8841179907304</v>
+      </c>
+      <c r="J244">
+        <v>8792.0345950126593</v>
+      </c>
+      <c r="K244">
+        <v>9448.1256919801199</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245">
+        <v>61</v>
+      </c>
+      <c r="C245" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D245">
+        <v>61</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245" t="s">
+        <v>240</v>
+      </c>
+      <c r="G245" t="s">
+        <v>294</v>
+      </c>
+      <c r="H245">
+        <v>2728.4625979959901</v>
+      </c>
+      <c r="I245">
+        <v>4808.42099800705</v>
+      </c>
+      <c r="J245">
+        <v>6168.3976850211602</v>
+      </c>
+      <c r="K245">
+        <v>8184.38226500153</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>225</v>
+      </c>
+      <c r="B246">
+        <v>62</v>
+      </c>
+      <c r="C246" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D246">
+        <v>62</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246" t="s">
+        <v>234</v>
+      </c>
+      <c r="G246" t="s">
+        <v>295</v>
+      </c>
+      <c r="H246">
+        <v>3132.0748310089102</v>
+      </c>
+      <c r="I246">
+        <v>5452.0569280087902</v>
+      </c>
+      <c r="J246">
+        <v>7022.2891010045996</v>
+      </c>
+      <c r="K246">
+        <v>8485.5260909795707</v>
+      </c>
+      <c r="L246">
+        <v>11140.092332005501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>225</v>
+      </c>
+      <c r="B247">
+        <v>63</v>
+      </c>
+      <c r="C247" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D247">
+        <v>63</v>
+      </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>226</v>
+      </c>
+      <c r="G247" t="s">
+        <v>296</v>
+      </c>
+      <c r="H247">
+        <v>2863.3891740143299</v>
+      </c>
+      <c r="I247">
+        <v>4334.0300160050301</v>
+      </c>
+      <c r="J247">
+        <v>7637.9827670156901</v>
+      </c>
+      <c r="K247">
+        <v>8781.9809809923099</v>
+      </c>
+      <c r="L247">
+        <v>10541.996621996101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>225</v>
+      </c>
+      <c r="B248">
+        <v>64</v>
+      </c>
+      <c r="C248" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D248">
+        <v>64</v>
+      </c>
+      <c r="E248">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>230</v>
+      </c>
+      <c r="G248" t="s">
+        <v>297</v>
+      </c>
+      <c r="H248">
+        <v>5373.6194680035096</v>
+      </c>
+      <c r="I248">
+        <v>6313.9786069989204</v>
+      </c>
+      <c r="J248">
+        <v>8029.6741949915804</v>
+      </c>
+      <c r="K248">
+        <v>9389.5536139905398</v>
+      </c>
+      <c r="L248">
+        <v>11144.844384997999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>225</v>
+      </c>
+      <c r="B249">
+        <v>65</v>
+      </c>
+      <c r="C249" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D249">
+        <v>65</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
+      </c>
+      <c r="F249" t="s">
+        <v>228</v>
+      </c>
+      <c r="G249" t="s">
+        <v>298</v>
+      </c>
+      <c r="H249">
+        <v>3456.6920280158502</v>
+      </c>
+      <c r="I249">
+        <v>5490.4396860003399</v>
+      </c>
+      <c r="J249">
+        <v>9833.9982760250496</v>
+      </c>
+      <c r="K249">
+        <v>11176.7550710141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>225</v>
+      </c>
+      <c r="B250">
+        <v>66</v>
+      </c>
+      <c r="C250" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D250">
+        <v>66</v>
+      </c>
+      <c r="E250">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>226</v>
+      </c>
+      <c r="G250" t="s">
+        <v>299</v>
+      </c>
+      <c r="H250">
+        <v>4013.5783489942501</v>
+      </c>
+      <c r="I250">
+        <v>5631.4983669817402</v>
+      </c>
+      <c r="J250">
+        <v>6901.5931079685597</v>
+      </c>
+      <c r="K250">
+        <v>8269.7046519815904</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>225</v>
+      </c>
+      <c r="B251">
+        <v>67</v>
+      </c>
+      <c r="C251" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D251">
+        <v>67</v>
+      </c>
+      <c r="E251">
+        <v>7</v>
+      </c>
+      <c r="F251" t="s">
+        <v>236</v>
+      </c>
+      <c r="G251" t="s">
+        <v>300</v>
+      </c>
+      <c r="H251">
+        <v>2762.0015380084501</v>
+      </c>
+      <c r="I251">
+        <v>3929.99426499009</v>
+      </c>
+      <c r="J251">
+        <v>7554.3182849883997</v>
+      </c>
+      <c r="K251">
+        <v>9218.0123690068704</v>
+      </c>
+      <c r="L251">
+        <v>10610.0310850143</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>225</v>
+      </c>
+      <c r="B252">
+        <v>68</v>
+      </c>
+      <c r="C252" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D252">
+        <v>68</v>
+      </c>
+      <c r="E252">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>230</v>
+      </c>
+      <c r="G252" t="s">
+        <v>301</v>
+      </c>
+      <c r="H252">
+        <v>2443.4972560405699</v>
+      </c>
+      <c r="I252">
+        <v>4328.7935130298101</v>
+      </c>
+      <c r="J252">
+        <v>6256.7714820206102</v>
+      </c>
+      <c r="K252">
+        <v>7544.8007010519505</v>
+      </c>
+      <c r="L252">
+        <v>9080.8581690192204</v>
+      </c>
+      <c r="M252">
+        <v>10548.0267420113</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>225</v>
+      </c>
+      <c r="B253">
+        <v>69</v>
+      </c>
+      <c r="C253" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D253">
+        <v>69</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>232</v>
+      </c>
+      <c r="G253" t="s">
+        <v>302</v>
+      </c>
+      <c r="H253">
+        <v>5766.8472270071497</v>
+      </c>
+      <c r="I253">
+        <v>7430.7238590121196</v>
+      </c>
+      <c r="J253">
+        <v>10390.7224700152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>225</v>
+      </c>
+      <c r="B254">
+        <v>70</v>
+      </c>
+      <c r="C254" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D254">
+        <v>70</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s">
+        <v>234</v>
+      </c>
+      <c r="G254" t="s">
+        <v>303</v>
+      </c>
+      <c r="H254">
+        <v>3022.9746119975998</v>
+      </c>
+      <c r="I254">
+        <v>5070.9272769987501</v>
+      </c>
+      <c r="J254">
+        <v>7607.0897649824601</v>
+      </c>
+      <c r="K254">
+        <v>8699.1557129919493</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>225</v>
+      </c>
+      <c r="B255">
+        <v>71</v>
+      </c>
+      <c r="C255" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D255">
+        <v>71</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255" t="s">
+        <v>238</v>
+      </c>
+      <c r="G255" t="s">
+        <v>304</v>
+      </c>
+      <c r="H255">
+        <v>9360.73664999008</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>225</v>
+      </c>
+      <c r="B256">
+        <v>72</v>
+      </c>
+      <c r="C256" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D256">
+        <v>72</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>240</v>
+      </c>
+      <c r="G256" t="s">
+        <v>305</v>
+      </c>
+      <c r="H256">
+        <v>5083.8555300235703</v>
+      </c>
+      <c r="I256">
+        <v>7523.8411430120404</v>
+      </c>
+      <c r="J256">
+        <v>8568.9507370293104</v>
+      </c>
+      <c r="K256">
+        <v>10232.395081013399</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>225</v>
+      </c>
+      <c r="B257">
+        <v>73</v>
+      </c>
+      <c r="C257" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D257">
+        <v>73</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>238</v>
+      </c>
+      <c r="G257" t="s">
+        <v>306</v>
+      </c>
+      <c r="H257">
+        <v>5415.72354200482</v>
+      </c>
+      <c r="I257">
+        <v>6895.6815240085098</v>
+      </c>
+      <c r="J257">
+        <v>8191.6247279941999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>225</v>
+      </c>
+      <c r="B258">
+        <v>74</v>
+      </c>
+      <c r="C258" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D258">
+        <v>74</v>
+      </c>
+      <c r="E258">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>226</v>
+      </c>
+      <c r="G258" t="s">
+        <v>307</v>
+      </c>
+      <c r="H258">
+        <v>2710.8151470124699</v>
+      </c>
+      <c r="I258">
+        <v>5507.3179980218401</v>
+      </c>
+      <c r="J258">
+        <v>6877.9043190181201</v>
+      </c>
+      <c r="K258">
+        <v>9179.3373460471594</v>
+      </c>
+      <c r="L258">
+        <v>10939.2893320322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>225</v>
+      </c>
+      <c r="B259">
+        <v>75</v>
+      </c>
+      <c r="C259" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D259">
+        <v>75</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+      <c r="F259" t="s">
+        <v>228</v>
+      </c>
+      <c r="G259" t="s">
+        <v>308</v>
+      </c>
+      <c r="H259">
+        <v>4611.6048440039103</v>
+      </c>
+      <c r="I259">
+        <v>6483.5869440138304</v>
+      </c>
+      <c r="J259">
+        <v>7955.5650239884799</v>
+      </c>
+      <c r="K259">
+        <v>8931.6551660001205</v>
+      </c>
+      <c r="L259">
+        <v>10315.6205120086</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>225</v>
+      </c>
+      <c r="B260">
+        <v>76</v>
+      </c>
+      <c r="C260" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D260">
+        <v>76</v>
+      </c>
+      <c r="E260">
+        <v>8</v>
+      </c>
+      <c r="F260" t="s">
+        <v>230</v>
+      </c>
+      <c r="G260" t="s">
+        <v>309</v>
+      </c>
+      <c r="H260">
+        <v>2725.9592890143299</v>
+      </c>
+      <c r="I260">
+        <v>6256.6990810036596</v>
+      </c>
+      <c r="J260">
+        <v>9157.7692720293999</v>
+      </c>
+      <c r="K260">
+        <v>11254.1904950141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>225</v>
+      </c>
+      <c r="B261">
+        <v>77</v>
+      </c>
+      <c r="C261" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D261">
+        <v>77</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>232</v>
+      </c>
+      <c r="G261" t="s">
+        <v>310</v>
+      </c>
+      <c r="H261">
+        <v>2669.1414230167802</v>
+      </c>
+      <c r="I261">
+        <v>5581.1308590173703</v>
+      </c>
+      <c r="J261">
+        <v>9077.3867870271206</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>225</v>
+      </c>
+      <c r="B262">
+        <v>78</v>
+      </c>
+      <c r="C262" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D262">
+        <v>78</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262" t="s">
+        <v>236</v>
+      </c>
+      <c r="G262" t="s">
+        <v>311</v>
+      </c>
+      <c r="H262">
+        <v>3680.18530300259</v>
+      </c>
+      <c r="I262">
+        <v>6416.2740200161898</v>
+      </c>
+      <c r="J262">
+        <v>9730.9167720079404</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>225</v>
+      </c>
+      <c r="B263">
+        <v>79</v>
+      </c>
+      <c r="C263" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D263">
+        <v>79</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263" t="s">
+        <v>240</v>
+      </c>
+      <c r="G263" t="s">
+        <v>312</v>
+      </c>
+      <c r="H263">
+        <v>6042.00594201684</v>
+      </c>
+      <c r="I263">
+        <v>7537.9107750058101</v>
+      </c>
+      <c r="J263">
+        <v>8492.2142219841407</v>
+      </c>
+      <c r="K263">
+        <v>10457.820591986099</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>225</v>
+      </c>
+      <c r="B264">
+        <v>80</v>
+      </c>
+      <c r="C264" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D264">
+        <v>80</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264" t="s">
+        <v>234</v>
+      </c>
+      <c r="G264" t="s">
+        <v>313</v>
+      </c>
+      <c r="H264">
+        <v>4603.9659110009597</v>
+      </c>
+      <c r="I264">
+        <v>6298.3437409996905</v>
+      </c>
+      <c r="J264">
+        <v>10522.2748740017</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>225</v>
+      </c>
+      <c r="B265">
+        <v>81</v>
+      </c>
+      <c r="C265" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D265">
+        <v>81</v>
+      </c>
+      <c r="E265">
+        <v>7</v>
+      </c>
+      <c r="F265" t="s">
+        <v>236</v>
+      </c>
+      <c r="G265" t="s">
+        <v>314</v>
+      </c>
+      <c r="H265">
+        <v>2758.8947780132198</v>
+      </c>
+      <c r="I265">
+        <v>4782.9891870021802</v>
+      </c>
+      <c r="J265">
+        <v>6286.9018839895698</v>
+      </c>
+      <c r="K265">
+        <v>7551.3354820013001</v>
+      </c>
+      <c r="L265">
+        <v>11086.9611620008</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>225</v>
+      </c>
+      <c r="B266">
+        <v>82</v>
+      </c>
+      <c r="C266" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D266">
+        <v>82</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>232</v>
+      </c>
+      <c r="G266" t="s">
+        <v>315</v>
+      </c>
+      <c r="H266">
+        <v>3868.9001360237598</v>
+      </c>
+      <c r="I266">
+        <v>5908.9805780053102</v>
+      </c>
+      <c r="J266">
+        <v>6940.7238070070698</v>
+      </c>
+      <c r="K266">
+        <v>8150.9250830113797</v>
+      </c>
+      <c r="L266">
+        <v>9183.1551620066093</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>225</v>
+      </c>
+      <c r="B267">
+        <v>83</v>
+      </c>
+      <c r="C267" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D267">
+        <v>83</v>
+      </c>
+      <c r="E267">
+        <v>8</v>
+      </c>
+      <c r="F267" t="s">
+        <v>230</v>
+      </c>
+      <c r="G267" t="s">
+        <v>316</v>
+      </c>
+      <c r="H267">
+        <v>2699.58718001842</v>
+      </c>
+      <c r="I267">
+        <v>4459.5412099957402</v>
+      </c>
+      <c r="J267">
+        <v>8467.5691879987698</v>
+      </c>
+      <c r="K267">
+        <v>9411.5719729959892</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>225</v>
+      </c>
+      <c r="B268">
+        <v>84</v>
+      </c>
+      <c r="C268" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D268">
+        <v>84</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s">
+        <v>234</v>
+      </c>
+      <c r="G268" t="s">
+        <v>317</v>
+      </c>
+      <c r="H268">
+        <v>4688.7800520062401</v>
+      </c>
+      <c r="I268">
+        <v>8475.7896139919703</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>225</v>
+      </c>
+      <c r="B269">
+        <v>85</v>
+      </c>
+      <c r="C269" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D269">
+        <v>85</v>
+      </c>
+      <c r="E269">
+        <v>6</v>
+      </c>
+      <c r="F269" t="s">
+        <v>226</v>
+      </c>
+      <c r="G269" t="s">
+        <v>318</v>
+      </c>
+      <c r="H269">
+        <v>5012.18232202529</v>
+      </c>
+      <c r="I269">
+        <v>6136.2025749981403</v>
+      </c>
+      <c r="J269">
+        <v>9763.7896220088005</v>
+      </c>
+      <c r="K269">
+        <v>11243.724464982701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>225</v>
+      </c>
+      <c r="B270">
+        <v>86</v>
+      </c>
+      <c r="C270" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D270">
+        <v>86</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270" t="s">
+        <v>228</v>
+      </c>
+      <c r="G270" t="s">
+        <v>319</v>
+      </c>
+      <c r="H270">
+        <v>2387.62541002035</v>
+      </c>
+      <c r="I270">
+        <v>3411.6449660062699</v>
+      </c>
+      <c r="J270">
+        <v>4747.6114810109102</v>
+      </c>
+      <c r="K270">
+        <v>7891.6924679875301</v>
+      </c>
+      <c r="L270">
+        <v>9715.6867730021404</v>
+      </c>
+      <c r="M270">
+        <v>11550.297551989501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>225</v>
+      </c>
+      <c r="B271">
+        <v>87</v>
+      </c>
+      <c r="C271" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D271">
+        <v>87</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+      <c r="F271" t="s">
+        <v>240</v>
+      </c>
+      <c r="G271" t="s">
+        <v>320</v>
+      </c>
+      <c r="H271">
+        <v>3588.8434869944999</v>
+      </c>
+      <c r="I271">
+        <v>4590.0896740257704</v>
+      </c>
+      <c r="J271">
+        <v>7244.8708840012496</v>
+      </c>
+      <c r="K271">
+        <v>11148.671018004399</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>225</v>
+      </c>
+      <c r="B272">
+        <v>88</v>
+      </c>
+      <c r="C272" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D272">
+        <v>88</v>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+      <c r="F272" t="s">
+        <v>238</v>
+      </c>
+      <c r="G272" t="s">
+        <v>321</v>
+      </c>
+      <c r="H272">
+        <v>3714.1002480089601</v>
+      </c>
+      <c r="I272">
+        <v>6051.8006010055497</v>
+      </c>
+      <c r="J272">
+        <v>7562.1255140006497</v>
+      </c>
+      <c r="K272">
+        <v>9010.0310980081504</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>225</v>
+      </c>
+      <c r="B273">
+        <v>89</v>
+      </c>
+      <c r="C273" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D273">
+        <v>89</v>
+      </c>
+      <c r="E273">
+        <v>8</v>
+      </c>
+      <c r="F273" t="s">
+        <v>230</v>
+      </c>
+      <c r="G273" t="s">
+        <v>322</v>
+      </c>
+      <c r="H273">
+        <v>3564.59425002336</v>
+      </c>
+      <c r="I273">
+        <v>6308.51485601067</v>
+      </c>
+      <c r="J273">
+        <v>7252.6268849968901</v>
+      </c>
+      <c r="K273">
+        <v>9616.8233940005302</v>
+      </c>
+      <c r="L273">
+        <v>10916.585497021601</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>225</v>
+      </c>
+      <c r="B274">
+        <v>90</v>
+      </c>
+      <c r="C274" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D274">
+        <v>90</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274" t="s">
+        <v>234</v>
+      </c>
+      <c r="G274" t="s">
+        <v>323</v>
+      </c>
+      <c r="H274">
+        <v>4475.3584210276604</v>
+      </c>
+      <c r="I274">
+        <v>6231.1477900147402</v>
+      </c>
+      <c r="J274">
+        <v>7863.3208000063896</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>225</v>
+      </c>
+      <c r="B275">
+        <v>91</v>
+      </c>
+      <c r="C275" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D275">
+        <v>91</v>
+      </c>
+      <c r="E275">
+        <v>7</v>
+      </c>
+      <c r="F275" t="s">
+        <v>236</v>
+      </c>
+      <c r="G275" t="s">
+        <v>324</v>
+      </c>
+      <c r="H275">
+        <v>5181.3700810074797</v>
+      </c>
+      <c r="I275">
+        <v>6917.2886860072604</v>
+      </c>
+      <c r="J275">
+        <v>8565.1838440000993</v>
+      </c>
+      <c r="K275">
+        <v>11207.0750089883</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>225</v>
+      </c>
+      <c r="B276">
+        <v>92</v>
+      </c>
+      <c r="C276" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D276">
+        <v>92</v>
+      </c>
+      <c r="E276">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>226</v>
+      </c>
+      <c r="G276" t="s">
+        <v>325</v>
+      </c>
+      <c r="H276">
+        <v>5603.5794120132896</v>
+      </c>
+      <c r="I276">
+        <v>7891.5967940091996</v>
+      </c>
+      <c r="J276">
+        <v>11043.5335009992</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>225</v>
+      </c>
+      <c r="B277">
+        <v>93</v>
+      </c>
+      <c r="C277" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D277">
+        <v>93</v>
+      </c>
+      <c r="E277">
+        <v>5</v>
+      </c>
+      <c r="F277" t="s">
+        <v>238</v>
+      </c>
+      <c r="G277" t="s">
+        <v>326</v>
+      </c>
+      <c r="H277">
+        <v>2574.5715470015998</v>
+      </c>
+      <c r="I277">
+        <v>3798.6077329814402</v>
+      </c>
+      <c r="J277">
+        <v>7790.64783599972</v>
+      </c>
+      <c r="K277">
+        <v>10214.6571570038</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>225</v>
+      </c>
+      <c r="B278">
+        <v>94</v>
+      </c>
+      <c r="C278" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D278">
+        <v>94</v>
+      </c>
+      <c r="E278">
+        <v>4</v>
+      </c>
+      <c r="F278" t="s">
+        <v>228</v>
+      </c>
+      <c r="G278" t="s">
+        <v>327</v>
+      </c>
+      <c r="H278">
+        <v>4255.9169330000796</v>
+      </c>
+      <c r="I278">
+        <v>5599.9415700137597</v>
+      </c>
+      <c r="J278">
+        <v>6907.8040510117999</v>
+      </c>
+      <c r="K278">
+        <v>8471.8921110033898</v>
+      </c>
+      <c r="L278">
+        <v>10592.0314500033</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>225</v>
+      </c>
+      <c r="B279">
+        <v>95</v>
+      </c>
+      <c r="C279" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D279">
+        <v>95</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+      <c r="F279" t="s">
+        <v>240</v>
+      </c>
+      <c r="G279" t="s">
+        <v>328</v>
+      </c>
+      <c r="H279">
+        <v>3872.0216760039302</v>
+      </c>
+      <c r="I279">
+        <v>5147.7032920122101</v>
+      </c>
+      <c r="J279">
+        <v>6168.0420279800801</v>
+      </c>
+      <c r="K279">
+        <v>7306.9522520005703</v>
+      </c>
+      <c r="L279">
+        <v>9415.9739280044996</v>
+      </c>
+      <c r="M279">
+        <v>10975.9980539977</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>225</v>
+      </c>
+      <c r="B280">
+        <v>96</v>
+      </c>
+      <c r="C280" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D280">
+        <v>96</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="s">
+        <v>232</v>
+      </c>
+      <c r="G280" t="s">
+        <v>329</v>
+      </c>
+      <c r="H280">
+        <v>4338.3212350010799</v>
+      </c>
+      <c r="I280">
+        <v>9859.7609710097295</v>
+      </c>
+      <c r="J280">
+        <v>10922.4656330049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>225</v>
+      </c>
+      <c r="B281">
+        <v>97</v>
+      </c>
+      <c r="C281" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D281">
+        <v>97</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+      <c r="F281" t="s">
+        <v>238</v>
+      </c>
+      <c r="G281" t="s">
+        <v>330</v>
+      </c>
+      <c r="H281">
+        <v>2378.9522499740101</v>
+      </c>
+      <c r="I281">
+        <v>3858.8287529945301</v>
+      </c>
+      <c r="J281">
+        <v>7066.9734419882298</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>225</v>
+      </c>
+      <c r="B282">
+        <v>98</v>
+      </c>
+      <c r="C282" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D282">
+        <v>98</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>232</v>
+      </c>
+      <c r="G282" t="s">
+        <v>331</v>
+      </c>
+      <c r="H282">
+        <v>3370.5699100196298</v>
+      </c>
+      <c r="I282">
+        <v>4926.1831850409499</v>
+      </c>
+      <c r="J282">
+        <v>8118.1700510084602</v>
+      </c>
+      <c r="K282">
+        <v>9273.5749059915506</v>
+      </c>
+      <c r="L282">
+        <v>10278.090663015801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>225</v>
+      </c>
+      <c r="B283">
+        <v>99</v>
+      </c>
+      <c r="C283" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D283">
+        <v>99</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283" t="s">
+        <v>234</v>
+      </c>
+      <c r="G283" t="s">
+        <v>332</v>
+      </c>
+      <c r="H283">
+        <v>7845.2709350287896</v>
+      </c>
+      <c r="I283">
+        <v>9837.3772610425895</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>225</v>
+      </c>
+      <c r="B284">
+        <v>100</v>
+      </c>
+      <c r="C284" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D284">
+        <v>100</v>
+      </c>
+      <c r="E284">
+        <v>8</v>
+      </c>
+      <c r="F284" t="s">
+        <v>230</v>
+      </c>
+      <c r="G284" t="s">
+        <v>333</v>
+      </c>
+      <c r="H284">
+        <v>4309.4241849780001</v>
+      </c>
+      <c r="I284">
+        <v>5589.5667369663697</v>
+      </c>
+      <c r="J284">
+        <v>10237.574619978601</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>225</v>
+      </c>
+      <c r="B285">
+        <v>101</v>
+      </c>
+      <c r="C285" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D285">
+        <v>101</v>
+      </c>
+      <c r="E285">
+        <v>6</v>
+      </c>
+      <c r="F285" t="s">
+        <v>226</v>
+      </c>
+      <c r="G285" t="s">
+        <v>334</v>
+      </c>
+      <c r="H285">
+        <v>2687.3631249964201</v>
+      </c>
+      <c r="I285">
+        <v>4865.68742799758</v>
+      </c>
+      <c r="J285">
+        <v>7319.3997049927702</v>
+      </c>
+      <c r="K285">
+        <v>8655.2973269820195</v>
+      </c>
+      <c r="L285">
+        <v>9755.5628899931908</v>
+      </c>
+      <c r="M285">
+        <v>10919.307846993201</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>225</v>
+      </c>
+      <c r="B286">
+        <v>102</v>
+      </c>
+      <c r="C286" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D286">
+        <v>102</v>
+      </c>
+      <c r="E286">
+        <v>3</v>
+      </c>
+      <c r="F286" t="s">
+        <v>240</v>
+      </c>
+      <c r="G286" t="s">
+        <v>335</v>
+      </c>
+      <c r="H286">
+        <v>2678.5381390154298</v>
+      </c>
+      <c r="I286">
+        <v>4268.88721901178</v>
+      </c>
+      <c r="J286">
+        <v>6476.7652080058997</v>
+      </c>
+      <c r="K286">
+        <v>7617.4740390181496</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>225</v>
+      </c>
+      <c r="B287">
+        <v>103</v>
+      </c>
+      <c r="C287" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D287">
+        <v>103</v>
+      </c>
+      <c r="E287">
+        <v>7</v>
+      </c>
+      <c r="F287" t="s">
+        <v>236</v>
+      </c>
+      <c r="G287" t="s">
+        <v>336</v>
+      </c>
+      <c r="H287">
+        <v>6376.17841604352</v>
+      </c>
+      <c r="I287">
+        <v>7276.3378950357401</v>
+      </c>
+      <c r="J287">
+        <v>8736.1058510243893</v>
+      </c>
+      <c r="K287">
+        <v>9728.1448760330604</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>225</v>
+      </c>
+      <c r="B288">
+        <v>104</v>
+      </c>
+      <c r="C288" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D288">
+        <v>104</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288" t="s">
+        <v>228</v>
+      </c>
+      <c r="G288" t="s">
+        <v>337</v>
+      </c>
+      <c r="H288">
+        <v>3067.08353999257</v>
+      </c>
+      <c r="I288">
+        <v>4267.0986929833798</v>
+      </c>
+      <c r="J288">
+        <v>10887.7326809763</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>225</v>
+      </c>
+      <c r="B289">
+        <v>105</v>
+      </c>
+      <c r="C289" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D289">
+        <v>105</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289" t="s">
+        <v>240</v>
+      </c>
+      <c r="G289" t="s">
+        <v>338</v>
+      </c>
+      <c r="H289">
+        <v>2804.1270460188298</v>
+      </c>
+      <c r="I289">
+        <v>6900.2248010337298</v>
+      </c>
+      <c r="J289">
+        <v>8532.3244330286907</v>
+      </c>
+      <c r="K289">
+        <v>9860.2217310368997</v>
+      </c>
+      <c r="L289">
+        <v>11060.2936690151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>225</v>
+      </c>
+      <c r="B290">
+        <v>106</v>
+      </c>
+      <c r="C290" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D290">
+        <v>106</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+      <c r="F290" t="s">
+        <v>238</v>
+      </c>
+      <c r="G290" t="s">
+        <v>339</v>
+      </c>
+      <c r="H290">
+        <v>6143.3356540203004</v>
+      </c>
+      <c r="I290">
+        <v>7295.3226220011702</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>225</v>
+      </c>
+      <c r="B291">
+        <v>107</v>
+      </c>
+      <c r="C291" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D291">
+        <v>107</v>
+      </c>
+      <c r="E291">
+        <v>7</v>
+      </c>
+      <c r="F291" t="s">
+        <v>236</v>
+      </c>
+      <c r="G291" t="s">
+        <v>340</v>
+      </c>
+      <c r="H291">
+        <v>7653.4394589960502</v>
+      </c>
+      <c r="I291">
+        <v>8553.2693359851801</v>
+      </c>
+      <c r="J291">
+        <v>9933.5213349759506</v>
+      </c>
+      <c r="K291">
+        <v>11189.626863002701</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>225</v>
+      </c>
+      <c r="B292">
+        <v>108</v>
+      </c>
+      <c r="C292" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D292">
+        <v>108</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="s">
+        <v>232</v>
+      </c>
+      <c r="G292" t="s">
+        <v>341</v>
+      </c>
+      <c r="H292">
+        <v>3570.1727499961798</v>
+      </c>
+      <c r="I292">
+        <v>4788.0610919892697</v>
+      </c>
+      <c r="J292">
+        <v>6274.2539039850199</v>
+      </c>
+      <c r="K292">
+        <v>8810.3284739851897</v>
+      </c>
+      <c r="L292">
+        <v>11042.171598970799</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>225</v>
+      </c>
+      <c r="B293">
+        <v>109</v>
+      </c>
+      <c r="C293" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D293">
+        <v>109</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>228</v>
+      </c>
+      <c r="G293" t="s">
+        <v>342</v>
+      </c>
+      <c r="H293">
+        <v>3207.5384770035698</v>
+      </c>
+      <c r="I293">
+        <v>5031.46023997664</v>
+      </c>
+      <c r="J293">
+        <v>8471.4365049898606</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>225</v>
+      </c>
+      <c r="B294">
+        <v>110</v>
+      </c>
+      <c r="C294" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D294">
+        <v>110</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294" t="s">
+        <v>234</v>
+      </c>
+      <c r="G294" t="s">
+        <v>343</v>
+      </c>
+      <c r="H294">
+        <v>2800.11812996864</v>
+      </c>
+      <c r="I294">
+        <v>5176.1737109720698</v>
+      </c>
+      <c r="J294">
+        <v>8659.4731249809192</v>
+      </c>
+      <c r="K294">
+        <v>10080.132475972099</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>225</v>
+      </c>
+      <c r="B295">
+        <v>111</v>
+      </c>
+      <c r="C295" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D295">
+        <v>111</v>
+      </c>
+      <c r="E295">
+        <v>8</v>
+      </c>
+      <c r="F295" t="s">
+        <v>230</v>
+      </c>
+      <c r="G295" t="s">
+        <v>344</v>
+      </c>
+      <c r="H295">
+        <v>3289.0777969956398</v>
+      </c>
+      <c r="I295">
+        <v>4288.9557940065797</v>
+      </c>
+      <c r="J295">
+        <v>5626.3388029932903</v>
+      </c>
+      <c r="K295">
+        <v>8129.0038709938499</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>225</v>
+      </c>
+      <c r="B296">
+        <v>112</v>
+      </c>
+      <c r="C296" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D296">
+        <v>112</v>
+      </c>
+      <c r="E296">
+        <v>6</v>
+      </c>
+      <c r="F296" t="s">
+        <v>226</v>
+      </c>
+      <c r="G296" t="s">
+        <v>345</v>
+      </c>
+      <c r="H296">
+        <v>4980.2703000008996</v>
+      </c>
+      <c r="I296">
+        <v>11100.321187019301</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>225</v>
+      </c>
+      <c r="B297">
+        <v>113</v>
+      </c>
+      <c r="C297" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D297">
+        <v>113</v>
+      </c>
+      <c r="E297">
+        <v>3</v>
+      </c>
+      <c r="F297" t="s">
+        <v>240</v>
+      </c>
+      <c r="G297" t="s">
+        <v>346</v>
+      </c>
+      <c r="H297">
+        <v>5615.6288360059198</v>
+      </c>
+      <c r="I297">
+        <v>6854.0256900191298</v>
+      </c>
+      <c r="J297">
+        <v>8085.9899650216103</v>
+      </c>
+      <c r="K297">
+        <v>10277.9057410061</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>225</v>
+      </c>
+      <c r="B298">
+        <v>114</v>
+      </c>
+      <c r="C298" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D298">
+        <v>114</v>
+      </c>
+      <c r="E298">
+        <v>7</v>
+      </c>
+      <c r="F298" t="s">
+        <v>236</v>
+      </c>
+      <c r="G298" t="s">
+        <v>347</v>
+      </c>
+      <c r="H298">
+        <v>2523.9961019754401</v>
+      </c>
+      <c r="I298">
+        <v>4252.00146999955</v>
+      </c>
+      <c r="J298">
+        <v>6300.0858849882998</v>
+      </c>
+      <c r="K298">
+        <v>7740.0252059996101</v>
+      </c>
+      <c r="L298">
+        <v>11278.647182971201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>225</v>
+      </c>
+      <c r="B299">
+        <v>115</v>
+      </c>
+      <c r="C299" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D299">
+        <v>115</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299" t="s">
+        <v>234</v>
+      </c>
+      <c r="G299" t="s">
+        <v>348</v>
+      </c>
+      <c r="H299">
+        <v>5469.8632439970897</v>
+      </c>
+      <c r="I299">
+        <v>7925.7103779911904</v>
+      </c>
+      <c r="J299">
+        <v>10975.570912986899</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>225</v>
+      </c>
+      <c r="B300">
+        <v>116</v>
+      </c>
+      <c r="C300" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D300">
+        <v>116</v>
+      </c>
+      <c r="E300">
+        <v>8</v>
+      </c>
+      <c r="F300" t="s">
+        <v>230</v>
+      </c>
+      <c r="G300" t="s">
+        <v>349</v>
+      </c>
+      <c r="H300">
+        <v>4648.6284999847403</v>
+      </c>
+      <c r="I300">
+        <v>5434.2833039760499</v>
+      </c>
+      <c r="J300">
+        <v>7192.1827359795498</v>
+      </c>
+      <c r="K300">
+        <v>10984.235750973199</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>225</v>
+      </c>
+      <c r="B301">
+        <v>117</v>
+      </c>
+      <c r="C301" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D301">
+        <v>117</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+      <c r="F301" t="s">
+        <v>238</v>
+      </c>
+      <c r="G301" t="s">
+        <v>350</v>
+      </c>
+      <c r="H301">
+        <v>4271.6351769864496</v>
+      </c>
+      <c r="I301">
+        <v>6727.6153659820502</v>
+      </c>
+      <c r="J301">
+        <v>9967.6068329811096</v>
+      </c>
+      <c r="K301">
+        <v>11098.836864978</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>225</v>
+      </c>
+      <c r="B302">
+        <v>118</v>
+      </c>
+      <c r="C302" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D302">
+        <v>118</v>
+      </c>
+      <c r="E302">
+        <v>4</v>
+      </c>
+      <c r="F302" t="s">
+        <v>228</v>
+      </c>
+      <c r="G302" t="s">
+        <v>351</v>
+      </c>
+      <c r="H302">
+        <v>2624.7686889767601</v>
+      </c>
+      <c r="I302">
+        <v>4040.8459960222199</v>
+      </c>
+      <c r="J302">
+        <v>8737.4609279930592</v>
+      </c>
+      <c r="K302">
+        <v>10408.782186984999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>225</v>
+      </c>
+      <c r="B303">
+        <v>119</v>
+      </c>
+      <c r="C303" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D303">
+        <v>119</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303" t="s">
+        <v>232</v>
+      </c>
+      <c r="G303" t="s">
+        <v>352</v>
+      </c>
+      <c r="H303">
+        <v>2510.1829840242799</v>
+      </c>
+      <c r="I303">
+        <v>3669.9953129887499</v>
+      </c>
+      <c r="J303">
+        <v>6382.1910490095597</v>
+      </c>
+      <c r="K303">
+        <v>8998.1881529986804</v>
+      </c>
+      <c r="L303">
+        <v>10305.189051985701</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>225</v>
+      </c>
+      <c r="B304">
+        <v>120</v>
+      </c>
+      <c r="C304" s="1">
+        <v>45836</v>
+      </c>
+      <c r="D304">
+        <v>120</v>
+      </c>
+      <c r="E304">
+        <v>6</v>
+      </c>
+      <c r="F304" t="s">
+        <v>226</v>
+      </c>
+      <c r="G304" t="s">
+        <v>353</v>
+      </c>
+      <c r="H304">
+        <v>3612.7742510139901</v>
+      </c>
+      <c r="I304">
+        <v>6104.9792569875699</v>
+      </c>
+      <c r="J304">
+        <v>7612.7879239916801</v>
+      </c>
+      <c r="K304">
+        <v>8705.0276059806292</v>
+      </c>
+      <c r="L304">
+        <v>9919.5267660021691</v>
       </c>
     </row>
   </sheetData>
